--- a/Code/Results/Cases/Case_7_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_0/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.363808916498499</v>
+        <v>1.134258211657226</v>
       </c>
       <c r="C2">
-        <v>0.2624855295129862</v>
+        <v>0.05518432994821154</v>
       </c>
       <c r="D2">
-        <v>0.1109215298304207</v>
+        <v>0.1000169013899139</v>
       </c>
       <c r="E2">
-        <v>0.01493095492790486</v>
+        <v>0.01790118797321139</v>
       </c>
       <c r="F2">
-        <v>7.375915415812045</v>
+        <v>7.827508642658245</v>
       </c>
       <c r="G2">
-        <v>0.0008619833458082781</v>
+        <v>0.0008944574947116271</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1524614829854727</v>
+        <v>0.1997521842651366</v>
       </c>
       <c r="K2">
-        <v>0.5391445493723026</v>
+        <v>0.9329940049286449</v>
       </c>
       <c r="L2">
-        <v>0.1396477431536027</v>
+        <v>0.08526330516623659</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.100511835903205</v>
+        <v>1.027589216241552</v>
       </c>
       <c r="C3">
-        <v>0.2240415037760073</v>
+        <v>0.04710055882755881</v>
       </c>
       <c r="D3">
-        <v>0.09691986922800311</v>
+        <v>0.08846214332650248</v>
       </c>
       <c r="E3">
-        <v>0.01517408746408289</v>
+        <v>0.01797569774332519</v>
       </c>
       <c r="F3">
-        <v>6.717849247762643</v>
+        <v>7.183293129131698</v>
       </c>
       <c r="G3">
-        <v>0.0008729984196493845</v>
+        <v>0.0009033544452101976</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1442168273390791</v>
+        <v>0.1879935789977836</v>
       </c>
       <c r="K3">
-        <v>0.4738247023106368</v>
+        <v>0.8328911436092312</v>
       </c>
       <c r="L3">
-        <v>0.1287525504233429</v>
+        <v>0.08033580948622188</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.944714089193099</v>
+        <v>0.9647465215352327</v>
       </c>
       <c r="C4">
-        <v>0.2010959853269725</v>
+        <v>0.04226194126903948</v>
       </c>
       <c r="D4">
-        <v>0.08848969207125634</v>
+        <v>0.08145420973601603</v>
       </c>
       <c r="E4">
-        <v>0.01533487829543123</v>
+        <v>0.01805087235510427</v>
       </c>
       <c r="F4">
-        <v>6.323701036241431</v>
+        <v>6.794123308453266</v>
       </c>
       <c r="G4">
-        <v>0.0008799170014732928</v>
+        <v>0.0009089609617314815</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1392882334220715</v>
+        <v>0.1809035492825828</v>
       </c>
       <c r="K4">
-        <v>0.4350967554031726</v>
+        <v>0.7737628078484704</v>
       </c>
       <c r="L4">
-        <v>0.1224590233773881</v>
+        <v>0.07757273794944552</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.882547890161533</v>
+        <v>0.9397504416666038</v>
       </c>
       <c r="C5">
-        <v>0.1918877796583587</v>
+        <v>0.04031683251418627</v>
       </c>
       <c r="D5">
-        <v>0.08508905602684536</v>
+        <v>0.07861561146647489</v>
       </c>
       <c r="E5">
-        <v>0.01540328840962313</v>
+        <v>0.01808872648429904</v>
       </c>
       <c r="F5">
-        <v>6.165251212966183</v>
+        <v>6.636926107806914</v>
       </c>
       <c r="G5">
-        <v>0.0008827782059019907</v>
+        <v>0.0009112834877162673</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.137309102881872</v>
+        <v>0.1780430131059205</v>
       </c>
       <c r="K5">
-        <v>0.4196232226398706</v>
+        <v>0.7502026845365606</v>
       </c>
       <c r="L5">
-        <v>0.1199859400356473</v>
+        <v>0.07650865153326691</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.872300944488728</v>
+        <v>0.9356353762270544</v>
       </c>
       <c r="C6">
-        <v>0.1903667163151681</v>
+        <v>0.03999532892085966</v>
       </c>
       <c r="D6">
-        <v>0.08452628181142074</v>
+        <v>0.07814517432356638</v>
       </c>
       <c r="E6">
-        <v>0.0154148220420629</v>
+        <v>0.01809544323532819</v>
       </c>
       <c r="F6">
-        <v>6.139062877664429</v>
+        <v>6.610901863704015</v>
       </c>
       <c r="G6">
-        <v>0.0008832559093849867</v>
+        <v>0.0009116714726479366</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1369821221033902</v>
+        <v>0.1775696480405031</v>
       </c>
       <c r="K6">
-        <v>0.4170714360310939</v>
+        <v>0.7463214262039628</v>
       </c>
       <c r="L6">
-        <v>0.1195805980045108</v>
+        <v>0.07633558522869777</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.943870529651349</v>
+        <v>0.9644070026644727</v>
       </c>
       <c r="C7">
-        <v>0.200971253453389</v>
+        <v>0.04223560682599725</v>
       </c>
       <c r="D7">
-        <v>0.08844369835870936</v>
+        <v>0.08141586364895659</v>
       </c>
       <c r="E7">
-        <v>0.01533578921781897</v>
+        <v>0.01805135386207457</v>
       </c>
       <c r="F7">
-        <v>6.321555749255225</v>
+        <v>6.791997921257575</v>
       </c>
       <c r="G7">
-        <v>0.0008799554158049241</v>
+        <v>0.0009089921288224751</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.139261428880161</v>
+        <v>0.1808648598249647</v>
       </c>
       <c r="K7">
-        <v>0.4348868729254676</v>
+        <v>0.7734429666096787</v>
       </c>
       <c r="L7">
-        <v>0.1224253097378565</v>
+        <v>0.07755814189782484</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.271709185212615</v>
+        <v>1.096894136495678</v>
       </c>
       <c r="C8">
-        <v>0.2490782483089617</v>
+        <v>0.05236815162023589</v>
       </c>
       <c r="D8">
-        <v>0.1060545348258017</v>
+        <v>0.0960119234284349</v>
       </c>
       <c r="E8">
-        <v>0.01501239395479592</v>
+        <v>0.01792065885685723</v>
       </c>
       <c r="F8">
-        <v>7.146753797980267</v>
+        <v>7.603925676337013</v>
       </c>
       <c r="G8">
-        <v>0.0008657508717941947</v>
+        <v>0.0008974963777069569</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1495882637489956</v>
+        <v>0.1956684090679559</v>
       </c>
       <c r="K8">
-        <v>0.51631180826584</v>
+        <v>0.8979610967431881</v>
       </c>
       <c r="L8">
-        <v>0.1358037481053245</v>
+        <v>0.08350725470526044</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.968996558711979</v>
+        <v>1.380460558197825</v>
       </c>
       <c r="C9">
-        <v>0.3498577120060133</v>
+        <v>0.07346667788635841</v>
       </c>
       <c r="D9">
-        <v>0.1422821078155039</v>
+        <v>0.1255522731429153</v>
       </c>
       <c r="E9">
-        <v>0.01446997611341949</v>
+        <v>0.01790682529039689</v>
       </c>
       <c r="F9">
-        <v>8.860002283382727</v>
+        <v>9.25731326386574</v>
       </c>
       <c r="G9">
-        <v>0.0008389867614060852</v>
+        <v>0.0008760107128724642</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.171118564009781</v>
+        <v>0.2259240074924023</v>
       </c>
       <c r="K9">
-        <v>0.6888897255719044</v>
+        <v>1.16327935221392</v>
       </c>
       <c r="L9">
-        <v>0.1655952059273247</v>
+        <v>0.09746133493184317</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.527109460092788</v>
+        <v>1.607528429233696</v>
       </c>
       <c r="C10">
-        <v>0.4297938695265202</v>
+        <v>0.09009196355924587</v>
       </c>
       <c r="D10">
-        <v>0.1705208273642285</v>
+        <v>0.1481705197160892</v>
       </c>
       <c r="E10">
-        <v>0.01412833636783217</v>
+        <v>0.01805850692930466</v>
       </c>
       <c r="F10">
-        <v>10.20298935685665</v>
+        <v>10.52581528995441</v>
       </c>
       <c r="G10">
-        <v>0.0008197627753475246</v>
+        <v>0.0008607411381772562</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1880675129177121</v>
+        <v>0.2492049979548483</v>
       </c>
       <c r="K10">
-        <v>0.8267243938988713</v>
+        <v>1.375184842899358</v>
       </c>
       <c r="L10">
-        <v>0.1903188978312897</v>
+        <v>0.1094303570019122</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.794376336404184</v>
+        <v>1.715990756703548</v>
       </c>
       <c r="C11">
-        <v>0.4679746988167039</v>
+        <v>0.09799731001039902</v>
       </c>
       <c r="D11">
-        <v>0.1838777146073909</v>
+        <v>0.158749505584467</v>
       </c>
       <c r="E11">
-        <v>0.01398558443349263</v>
+        <v>0.01816626227970808</v>
       </c>
       <c r="F11">
-        <v>10.83928857878925</v>
+        <v>11.11876604448332</v>
       </c>
       <c r="G11">
-        <v>0.000811052632538694</v>
+        <v>0.0008538739456254163</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1961173730622932</v>
+        <v>0.2601024545855566</v>
       </c>
       <c r="K11">
-        <v>0.8926859182552533</v>
+        <v>1.476329598101046</v>
       </c>
       <c r="L11">
-        <v>0.2023629798956534</v>
+        <v>0.1153315568582798</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.89785106921596</v>
+        <v>1.75791127502572</v>
       </c>
       <c r="C12">
-        <v>0.4827485342606792</v>
+        <v>0.1010496453369285</v>
       </c>
       <c r="D12">
-        <v>0.1890248978178732</v>
+        <v>0.1628058184004999</v>
       </c>
       <c r="E12">
-        <v>0.01393338640843922</v>
+        <v>0.01821298541646499</v>
       </c>
       <c r="F12">
-        <v>11.08458907083394</v>
+        <v>11.34598839360564</v>
       </c>
       <c r="G12">
-        <v>0.0008077533723446821</v>
+        <v>0.0008512817783909754</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.199223862882647</v>
+        <v>0.2642805726066868</v>
       </c>
       <c r="K12">
-        <v>0.9182192065622701</v>
+        <v>1.515415217193834</v>
       </c>
       <c r="L12">
-        <v>0.2070566214339635</v>
+        <v>0.1176398756492247</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.875459031569562</v>
+        <v>1.748843394336518</v>
       </c>
       <c r="C13">
-        <v>0.4795517200282973</v>
+        <v>0.1003894912157506</v>
       </c>
       <c r="D13">
-        <v>0.1879121125247565</v>
+        <v>0.1619298339286388</v>
       </c>
       <c r="E13">
-        <v>0.01394454478066365</v>
+        <v>0.01820265354511541</v>
       </c>
       <c r="F13">
-        <v>11.03155345012635</v>
+        <v>11.29692570820805</v>
       </c>
       <c r="G13">
-        <v>0.0008084640731752762</v>
+        <v>0.0008518397322497189</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1985520716088871</v>
+        <v>0.2633783228421649</v>
       </c>
       <c r="K13">
-        <v>0.9126939313962765</v>
+        <v>1.506960783218517</v>
       </c>
       <c r="L13">
-        <v>0.2060395314669989</v>
+        <v>0.1171393222233021</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.802841665212497</v>
+        <v>1.719421932323741</v>
       </c>
       <c r="C14">
-        <v>0.4691834809760849</v>
+        <v>0.09824719067005105</v>
       </c>
       <c r="D14">
-        <v>0.184299288760954</v>
+        <v>0.1590821600303229</v>
       </c>
       <c r="E14">
-        <v>0.0139812525552756</v>
+        <v>0.01816998546652826</v>
       </c>
       <c r="F14">
-        <v>10.85937803720185</v>
+        <v>11.13740349729676</v>
       </c>
       <c r="G14">
-        <v>0.0008107812563263886</v>
+        <v>0.0008536605393582978</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1963717207677433</v>
+        <v>0.2604451134497339</v>
       </c>
       <c r="K14">
-        <v>0.8947748842989398</v>
+        <v>1.479528846421118</v>
       </c>
       <c r="L14">
-        <v>0.2027463515201902</v>
+        <v>0.1155199374744313</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.758667780460826</v>
+        <v>1.701514252079164</v>
       </c>
       <c r="C15">
-        <v>0.462875508131134</v>
+        <v>0.09694292632944723</v>
       </c>
       <c r="D15">
-        <v>0.1820984609903462</v>
+        <v>0.1573446993295278</v>
       </c>
       <c r="E15">
-        <v>0.01400398054580165</v>
+        <v>0.01815075710160663</v>
       </c>
       <c r="F15">
-        <v>10.75450458180791</v>
+        <v>11.0400538426602</v>
       </c>
       <c r="G15">
-        <v>0.0008122002852530531</v>
+        <v>0.0008547768180129132</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1950440733966587</v>
+        <v>0.2586553777291911</v>
       </c>
       <c r="K15">
-        <v>0.8838740565192751</v>
+        <v>1.462831378412176</v>
       </c>
       <c r="L15">
-        <v>0.2007470724307154</v>
+        <v>0.1145378672694406</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.50994015279116</v>
+        <v>1.600552822931775</v>
       </c>
       <c r="C16">
-        <v>0.4273396573300943</v>
+        <v>0.08958300416053078</v>
       </c>
       <c r="D16">
-        <v>0.1696594930955371</v>
+        <v>0.1474857016104636</v>
       </c>
       <c r="E16">
-        <v>0.01413792336897846</v>
+        <v>0.01805227327320402</v>
       </c>
       <c r="F16">
-        <v>10.16197344679844</v>
+        <v>10.48741746816032</v>
       </c>
       <c r="G16">
-        <v>0.0008203322203255025</v>
+        <v>0.0008611912613366358</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1875490349976516</v>
+        <v>0.2484996066409622</v>
       </c>
       <c r="K16">
-        <v>0.8224862995777187</v>
+        <v>1.368678712662842</v>
       </c>
       <c r="L16">
-        <v>0.1895493142387892</v>
+        <v>0.1090545465580561</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.361006690520924</v>
+        <v>1.540010421277657</v>
       </c>
       <c r="C17">
-        <v>0.4060407652644642</v>
+        <v>0.08516199383242906</v>
       </c>
       <c r="D17">
-        <v>0.1621698761194637</v>
+        <v>0.1415175525426093</v>
       </c>
       <c r="E17">
-        <v>0.01422336002729008</v>
+        <v>0.01800201521640776</v>
       </c>
       <c r="F17">
-        <v>9.805435508331726</v>
+        <v>10.15273396808169</v>
       </c>
       <c r="G17">
-        <v>0.0008253259137419651</v>
+        <v>0.0008651444816611213</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1830442560986896</v>
+        <v>0.2423529144915975</v>
       </c>
       <c r="K17">
-        <v>0.7857187904089642</v>
+        <v>1.312203281983471</v>
       </c>
       <c r="L17">
-        <v>0.1828960199907499</v>
+        <v>0.1058129958931175</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.276579763019811</v>
+        <v>1.505667427573655</v>
       </c>
       <c r="C18">
-        <v>0.3939575250062433</v>
+        <v>0.08265073383627453</v>
       </c>
       <c r="D18">
-        <v>0.1579090600814652</v>
+        <v>0.1381115377239013</v>
       </c>
       <c r="E18">
-        <v>0.01427368988023048</v>
+        <v>0.01797673278533285</v>
       </c>
       <c r="F18">
-        <v>9.602704083627543</v>
+        <v>9.961703163341042</v>
       </c>
       <c r="G18">
-        <v>0.0008282018503869004</v>
+        <v>0.0008674259114955259</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1804845607464642</v>
+        <v>0.2388458873471464</v>
       </c>
       <c r="K18">
-        <v>0.7648719762858462</v>
+        <v>1.280160183808249</v>
       </c>
       <c r="L18">
-        <v>0.1791430004835419</v>
+        <v>0.1039909642025947</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.248196951755688</v>
+        <v>1.494118835461819</v>
       </c>
       <c r="C19">
-        <v>0.3898935823269767</v>
+        <v>0.08180562096555377</v>
       </c>
       <c r="D19">
-        <v>0.1564740566001035</v>
+        <v>0.1369626614072672</v>
       </c>
       <c r="E19">
-        <v>0.01429093390281855</v>
+        <v>0.01796878529090407</v>
       </c>
       <c r="F19">
-        <v>9.534445035537374</v>
+        <v>9.897264605210097</v>
       </c>
       <c r="G19">
-        <v>0.0008291763939283346</v>
+        <v>0.0008681997644372271</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1796230132029208</v>
+        <v>0.2376631339234052</v>
       </c>
       <c r="K19">
-        <v>0.757862881966858</v>
+        <v>1.269383644831095</v>
       </c>
       <c r="L19">
-        <v>0.1778844590607349</v>
+        <v>0.1033811140286431</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.376730724530887</v>
+        <v>1.54640493039372</v>
       </c>
       <c r="C20">
-        <v>0.4082903888200065</v>
+        <v>0.08562928395542713</v>
       </c>
       <c r="D20">
-        <v>0.1629621869603852</v>
+        <v>0.1421500492105991</v>
       </c>
       <c r="E20">
-        <v>0.0142141418530386</v>
+        <v>0.01800698776572141</v>
       </c>
       <c r="F20">
-        <v>9.843142711021272</v>
+        <v>10.18820670231577</v>
       </c>
       <c r="G20">
-        <v>0.0008247939841540236</v>
+        <v>0.0008647228849835312</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1835204916852433</v>
+        <v>0.2430042518759237</v>
       </c>
       <c r="K20">
-        <v>0.7896010349091966</v>
+        <v>1.318168948646075</v>
       </c>
       <c r="L20">
-        <v>0.183596516646432</v>
+        <v>0.1061536191313692</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.824106606045234</v>
+        <v>1.728039802422046</v>
       </c>
       <c r="C21">
-        <v>0.4722198385730394</v>
+        <v>0.09887475919809674</v>
       </c>
       <c r="D21">
-        <v>0.1853579026556957</v>
+        <v>0.1599171523160408</v>
       </c>
       <c r="E21">
-        <v>0.01397041977998859</v>
+        <v>0.01817941727131078</v>
       </c>
       <c r="F21">
-        <v>10.90982597443201</v>
+        <v>11.18418275059025</v>
       </c>
       <c r="G21">
-        <v>0.0008101007207309909</v>
+        <v>0.0008531255256795205</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1970104814747344</v>
+        <v>0.2613052074305244</v>
       </c>
       <c r="K21">
-        <v>0.9000223150137714</v>
+        <v>1.48756410807286</v>
       </c>
       <c r="L21">
-        <v>0.2037098733036515</v>
+        <v>0.1159935214742731</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.129908224050382</v>
+        <v>1.851751894510869</v>
       </c>
       <c r="C22">
-        <v>0.515873529594046</v>
+        <v>0.1078793337544113</v>
       </c>
       <c r="D22">
-        <v>0.2005241652583578</v>
+        <v>0.1718268643952143</v>
       </c>
       <c r="E22">
-        <v>0.01382199524382655</v>
+        <v>0.01832680120672769</v>
       </c>
       <c r="F22">
-        <v>11.63272117340307</v>
+        <v>11.85098225353181</v>
       </c>
       <c r="G22">
-        <v>0.0008004889571970728</v>
+        <v>0.0008455925819754165</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2061716229429749</v>
+        <v>0.2735701700946649</v>
       </c>
       <c r="K22">
-        <v>0.9754760642910583</v>
+        <v>1.602902574911525</v>
       </c>
       <c r="L22">
-        <v>0.2176400797799687</v>
+        <v>0.1228583703838027</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.965339253100751</v>
+        <v>1.785228143759724</v>
       </c>
       <c r="C23">
-        <v>0.4923828603596121</v>
+        <v>0.1030380818361749</v>
       </c>
       <c r="D23">
-        <v>0.1923752870663265</v>
+        <v>0.1654400353570509</v>
       </c>
       <c r="E23">
-        <v>0.01390020275499815</v>
+        <v>0.01824483927255649</v>
       </c>
       <c r="F23">
-        <v>11.24427877130194</v>
+        <v>11.49350145616114</v>
       </c>
       <c r="G23">
-        <v>0.0008056219803296974</v>
+        <v>0.000849609911007702</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2012471058610572</v>
+        <v>0.2669936061001934</v>
       </c>
       <c r="K23">
-        <v>0.9348715937200893</v>
+        <v>1.540883463764089</v>
       </c>
       <c r="L23">
-        <v>0.2101265753532005</v>
+        <v>0.1191518241733931</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.369618185765205</v>
+        <v>1.543512536446428</v>
       </c>
       <c r="C24">
-        <v>0.4072728340744618</v>
+        <v>0.08541792798484948</v>
       </c>
       <c r="D24">
-        <v>0.1626038440151802</v>
+        <v>0.14186401975563</v>
       </c>
       <c r="E24">
-        <v>0.01421830561973492</v>
+        <v>0.01800472845253331</v>
       </c>
       <c r="F24">
-        <v>9.826088337154971</v>
+        <v>10.17216520024857</v>
       </c>
       <c r="G24">
-        <v>0.0008250344535742422</v>
+        <v>0.00086491346174638</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1833050923113504</v>
+        <v>0.2427096993500513</v>
       </c>
       <c r="K24">
-        <v>0.7878449711025581</v>
+        <v>1.315470553284911</v>
       </c>
       <c r="L24">
-        <v>0.1832795990256955</v>
+        <v>0.1059994944489517</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.773340374603947</v>
+        <v>1.30079547622779</v>
       </c>
       <c r="C25">
-        <v>0.3217190986576384</v>
+        <v>0.06759145652873855</v>
       </c>
       <c r="D25">
-        <v>0.1322442678501687</v>
+        <v>0.1174281706334881</v>
       </c>
       <c r="E25">
-        <v>0.01460681229476712</v>
+        <v>0.01788325685296055</v>
       </c>
       <c r="F25">
-        <v>8.383846283523383</v>
+        <v>8.801884932253159</v>
       </c>
       <c r="G25">
-        <v>0.0008461318366205496</v>
+        <v>0.000881722429811053</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1651237467595976</v>
+        <v>0.2175783258775397</v>
       </c>
       <c r="K25">
-        <v>0.6405210321936892</v>
+        <v>1.088846971883981</v>
       </c>
       <c r="L25">
-        <v>0.1570919389185121</v>
+        <v>0.09341044427137746</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_0/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.134258211657226</v>
+        <v>3.869090591705742</v>
       </c>
       <c r="C2">
-        <v>0.05518432994821154</v>
+        <v>1.104745911581944</v>
       </c>
       <c r="D2">
-        <v>0.1000169013899139</v>
+        <v>0.3278482989888687</v>
       </c>
       <c r="E2">
-        <v>0.01790118797321139</v>
+        <v>1.498654169906317</v>
       </c>
       <c r="F2">
-        <v>7.827508642658245</v>
+        <v>6.635873520255558</v>
       </c>
       <c r="G2">
-        <v>0.0008944574947116271</v>
+        <v>0.0007437127231291205</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1997521842651366</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9329940049286449</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.08526330516623659</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.027589216241552</v>
+        <v>3.292915343289508</v>
       </c>
       <c r="C3">
-        <v>0.04710055882755881</v>
+        <v>0.9385230912519091</v>
       </c>
       <c r="D3">
-        <v>0.08846214332650248</v>
+        <v>0.2856247266611547</v>
       </c>
       <c r="E3">
-        <v>0.01797569774332519</v>
+        <v>1.26642903220683</v>
       </c>
       <c r="F3">
-        <v>7.183293129131698</v>
+        <v>5.740628530079618</v>
       </c>
       <c r="G3">
-        <v>0.0009033544452101976</v>
+        <v>0.000757803057901766</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1879935789977836</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8328911436092312</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08033580948622188</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9647465215352327</v>
+        <v>2.951327824156692</v>
       </c>
       <c r="C4">
-        <v>0.04226194126903948</v>
+        <v>0.8401863449115581</v>
       </c>
       <c r="D4">
-        <v>0.08145420973601603</v>
+        <v>0.2607697280726882</v>
       </c>
       <c r="E4">
-        <v>0.01805087235510427</v>
+        <v>1.130126361199331</v>
       </c>
       <c r="F4">
-        <v>6.794123308453266</v>
+        <v>5.211660616999353</v>
       </c>
       <c r="G4">
-        <v>0.0009089609617314815</v>
+        <v>0.0007665192320742595</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1809035492825828</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7737628078484704</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.07757273794944552</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9397504416666038</v>
+        <v>2.814651053569776</v>
       </c>
       <c r="C5">
-        <v>0.04031683251418627</v>
+        <v>0.8008737998413835</v>
       </c>
       <c r="D5">
-        <v>0.07861561146647489</v>
+        <v>0.2508628126613104</v>
       </c>
       <c r="E5">
-        <v>0.01808872648429904</v>
+        <v>1.075863128695488</v>
       </c>
       <c r="F5">
-        <v>6.636926107806914</v>
+        <v>5.000427111763315</v>
       </c>
       <c r="G5">
-        <v>0.0009112834877162673</v>
+        <v>0.0007700955535800399</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1780430131059205</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7502026845365606</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07650865153326691</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9356353762270544</v>
+        <v>2.792094130573673</v>
       </c>
       <c r="C6">
-        <v>0.03999532892085966</v>
+        <v>0.7943873037310141</v>
       </c>
       <c r="D6">
-        <v>0.07814517432356638</v>
+        <v>0.2492299167691385</v>
       </c>
       <c r="E6">
-        <v>0.01809544323532819</v>
+        <v>1.066922367830301</v>
       </c>
       <c r="F6">
-        <v>6.610901863704015</v>
+        <v>4.965589858726418</v>
       </c>
       <c r="G6">
-        <v>0.0009116714726479366</v>
+        <v>0.0007706910880035404</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1775696480405031</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7463214262039628</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07633558522869777</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9644070026644727</v>
+        <v>2.949474991803129</v>
       </c>
       <c r="C7">
-        <v>0.04223560682599725</v>
+        <v>0.8396532948888478</v>
       </c>
       <c r="D7">
-        <v>0.08141586364895659</v>
+        <v>0.2606352797066194</v>
       </c>
       <c r="E7">
-        <v>0.01805135386207457</v>
+        <v>1.12938971838085</v>
       </c>
       <c r="F7">
-        <v>6.791997921257575</v>
+        <v>5.208795406155929</v>
       </c>
       <c r="G7">
-        <v>0.0009089921288224751</v>
+        <v>0.0007665673549488928</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1808648598249647</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7734429666096787</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.07755814189782484</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.096894136495678</v>
+        <v>3.6675410122877</v>
       </c>
       <c r="C8">
-        <v>0.05236815162023589</v>
+        <v>1.046543339692192</v>
       </c>
       <c r="D8">
-        <v>0.0960119234284349</v>
+        <v>0.3130363585852933</v>
       </c>
       <c r="E8">
-        <v>0.01792065885685723</v>
+        <v>1.41708081146524</v>
       </c>
       <c r="F8">
-        <v>7.603925676337013</v>
+        <v>6.322315476670298</v>
       </c>
       <c r="G8">
-        <v>0.0008974963777069569</v>
+        <v>0.0007485629914414371</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1956684090679559</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8979610967431881</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.08350725470526044</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.380460558197825</v>
+        <v>5.202712292611295</v>
       </c>
       <c r="C9">
-        <v>0.07346667788635841</v>
+        <v>1.491766529190727</v>
       </c>
       <c r="D9">
-        <v>0.1255522731429153</v>
+        <v>0.4269393464070106</v>
       </c>
       <c r="E9">
-        <v>0.01790682529039689</v>
+        <v>2.048269869643008</v>
       </c>
       <c r="F9">
-        <v>9.25731326386574</v>
+        <v>8.719465186564719</v>
       </c>
       <c r="G9">
-        <v>0.0008760107128724642</v>
+        <v>0.0007133136491433303</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2259240074924023</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.16327935221392</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.09746133493184317</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.607528429233696</v>
+        <v>6.463671731928628</v>
       </c>
       <c r="C10">
-        <v>0.09009196355924587</v>
+        <v>1.861408775469329</v>
       </c>
       <c r="D10">
-        <v>0.1481705197160892</v>
+        <v>0.5222620816065842</v>
       </c>
       <c r="E10">
-        <v>0.01805850692930466</v>
+        <v>2.585351906101806</v>
       </c>
       <c r="F10">
-        <v>10.52581528995441</v>
+        <v>10.7001295017497</v>
       </c>
       <c r="G10">
-        <v>0.0008607411381772562</v>
+        <v>0.0006866164722787164</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2492049979548483</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.375184842899358</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1094303570019122</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.715990756703548</v>
+        <v>7.08447099076642</v>
       </c>
       <c r="C11">
-        <v>0.09799731001039902</v>
+        <v>2.044950820287738</v>
       </c>
       <c r="D11">
-        <v>0.158749505584467</v>
+        <v>0.5697417279156696</v>
       </c>
       <c r="E11">
-        <v>0.01816626227970808</v>
+        <v>2.856771504377136</v>
       </c>
       <c r="F11">
-        <v>11.11876604448332</v>
+        <v>11.67785285994654</v>
       </c>
       <c r="G11">
-        <v>0.0008538739456254163</v>
+        <v>0.0006740234843875903</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2601024545855566</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.476329598101046</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1153315568582798</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.75791127502572</v>
+        <v>7.328571152713948</v>
       </c>
       <c r="C12">
-        <v>0.1010496453369285</v>
+        <v>2.117427780801279</v>
       </c>
       <c r="D12">
-        <v>0.1628058184004999</v>
+        <v>0.5885073197268582</v>
       </c>
       <c r="E12">
-        <v>0.01821298541646499</v>
+        <v>2.964870090642748</v>
       </c>
       <c r="F12">
-        <v>11.34598839360564</v>
+        <v>12.06264309303924</v>
       </c>
       <c r="G12">
-        <v>0.0008512817783909754</v>
+        <v>0.0006691567471939022</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2642805726066868</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.515415217193834</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1176398756492247</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.748843394336518</v>
+        <v>7.275554054881241</v>
       </c>
       <c r="C13">
-        <v>0.1003894912157506</v>
+        <v>2.101670983166912</v>
       </c>
       <c r="D13">
-        <v>0.1619298339286388</v>
+        <v>0.58442696306318</v>
       </c>
       <c r="E13">
-        <v>0.01820265354511541</v>
+        <v>2.941323476956214</v>
       </c>
       <c r="F13">
-        <v>11.29692570820805</v>
+        <v>11.97905445325648</v>
       </c>
       <c r="G13">
-        <v>0.0008518397322497189</v>
+        <v>0.0006702099212943329</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2633783228421649</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.506960783218517</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1171393222233021</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.719421932323741</v>
+        <v>7.104356758336053</v>
       </c>
       <c r="C14">
-        <v>0.09824719067005105</v>
+        <v>2.05084853859745</v>
       </c>
       <c r="D14">
-        <v>0.1590821600303229</v>
+        <v>0.571268457492522</v>
       </c>
       <c r="E14">
-        <v>0.01816998546652826</v>
+        <v>2.86554799980604</v>
       </c>
       <c r="F14">
-        <v>11.13740349729676</v>
+        <v>11.70919345391218</v>
       </c>
       <c r="G14">
-        <v>0.0008536605393582978</v>
+        <v>0.0006736252978828791</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2604451134497339</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.479528846421118</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1155199374744313</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.701514252079164</v>
+        <v>7.00074807254731</v>
       </c>
       <c r="C15">
-        <v>0.09694292632944723</v>
+        <v>2.020133084844645</v>
       </c>
       <c r="D15">
-        <v>0.1573446993295278</v>
+        <v>0.5633178486194481</v>
       </c>
       <c r="E15">
-        <v>0.01815075710160663</v>
+        <v>2.819877994524219</v>
       </c>
       <c r="F15">
-        <v>11.0400538426602</v>
+        <v>11.54591643366126</v>
       </c>
       <c r="G15">
-        <v>0.0008547768180129132</v>
+        <v>0.000675703335704542</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2586553777291911</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.462831378412176</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1145378672694406</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.600552822931775</v>
+        <v>6.424223654653986</v>
       </c>
       <c r="C16">
-        <v>0.08958300416053078</v>
+        <v>1.849782383921365</v>
       </c>
       <c r="D16">
-        <v>0.1474857016104636</v>
+        <v>0.5192570740193219</v>
       </c>
       <c r="E16">
-        <v>0.01805227327320402</v>
+        <v>2.568268379124916</v>
       </c>
       <c r="F16">
-        <v>10.48741746816032</v>
+        <v>10.63804998064421</v>
       </c>
       <c r="G16">
-        <v>0.0008611912613366358</v>
+        <v>0.0006874278300959101</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2484996066409622</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.368678712662842</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1090545465580561</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.540010421277657</v>
+        <v>6.083985265651677</v>
       </c>
       <c r="C17">
-        <v>0.08516199383242906</v>
+        <v>1.74967925505041</v>
       </c>
       <c r="D17">
-        <v>0.1415175525426093</v>
+        <v>0.4933995490309258</v>
       </c>
       <c r="E17">
-        <v>0.01800201521640776</v>
+        <v>2.421703187807424</v>
       </c>
       <c r="F17">
-        <v>10.15273396808169</v>
+        <v>10.10289414216493</v>
       </c>
       <c r="G17">
-        <v>0.0008651444816611213</v>
+        <v>0.0006944852374395349</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2423529144915975</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.312203281983471</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1058129958931175</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.505667427573655</v>
+        <v>5.892560823670976</v>
       </c>
       <c r="C18">
-        <v>0.08265073383627453</v>
+        <v>1.693493160134778</v>
       </c>
       <c r="D18">
-        <v>0.1381115377239013</v>
+        <v>0.4788997599790434</v>
       </c>
       <c r="E18">
-        <v>0.01797673278533285</v>
+        <v>2.339843746202689</v>
       </c>
       <c r="F18">
-        <v>9.961703163341042</v>
+        <v>9.802041018714419</v>
       </c>
       <c r="G18">
-        <v>0.0008674259114955259</v>
+        <v>0.0006985048257280441</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2388458873471464</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.280160183808249</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1039909642025947</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.494118835461819</v>
+        <v>5.828425562121311</v>
       </c>
       <c r="C19">
-        <v>0.08180562096555377</v>
+        <v>1.674689419313893</v>
       </c>
       <c r="D19">
-        <v>0.1369626614072672</v>
+        <v>0.4740495448535285</v>
       </c>
       <c r="E19">
-        <v>0.01796878529090407</v>
+        <v>2.312511968272219</v>
       </c>
       <c r="F19">
-        <v>9.897264605210097</v>
+        <v>9.701283292199292</v>
       </c>
       <c r="G19">
-        <v>0.0008681997644372271</v>
+        <v>0.0006998598190865405</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2376631339234052</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.269383644831095</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1033811140286431</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.54640493039372</v>
+        <v>6.119748412428692</v>
       </c>
       <c r="C20">
-        <v>0.08562928395542713</v>
+        <v>1.760186838715697</v>
       </c>
       <c r="D20">
-        <v>0.1421500492105991</v>
+        <v>0.4961123540601022</v>
       </c>
       <c r="E20">
-        <v>0.01800698776572141</v>
+        <v>2.437044104630658</v>
       </c>
       <c r="F20">
-        <v>10.18820670231577</v>
+        <v>10.15912097007671</v>
       </c>
       <c r="G20">
-        <v>0.0008647228849835312</v>
+        <v>0.0006937382734403594</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2430042518759237</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.318168948646075</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1061536191313692</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.728039802422046</v>
+        <v>7.154374863364637</v>
       </c>
       <c r="C21">
-        <v>0.09887475919809674</v>
+        <v>2.065688090290337</v>
       </c>
       <c r="D21">
-        <v>0.1599171523160408</v>
+        <v>0.5751101848300664</v>
       </c>
       <c r="E21">
-        <v>0.01817941727131078</v>
+        <v>2.887646484235404</v>
       </c>
       <c r="F21">
-        <v>11.18418275059025</v>
+        <v>11.78802886964667</v>
       </c>
       <c r="G21">
-        <v>0.0008531255256795205</v>
+        <v>0.0006726251112156297</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2613052074305244</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.48756410807286</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1159935214742731</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.851751894510869</v>
+        <v>7.884855886698745</v>
       </c>
       <c r="C22">
-        <v>0.1078793337544113</v>
+        <v>2.283282165834066</v>
       </c>
       <c r="D22">
-        <v>0.1718268643952143</v>
+        <v>0.6314726412728078</v>
       </c>
       <c r="E22">
-        <v>0.01832680120672769</v>
+        <v>3.214297175114268</v>
       </c>
       <c r="F22">
-        <v>11.85098225353181</v>
+        <v>12.94011826465407</v>
       </c>
       <c r="G22">
-        <v>0.0008455925819754165</v>
+        <v>0.0006582287118990811</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2735701700946649</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.602902574911525</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1228583703838027</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.785228143759724</v>
+        <v>7.489036152901463</v>
       </c>
       <c r="C23">
-        <v>0.1030380818361749</v>
+        <v>2.165170641705231</v>
       </c>
       <c r="D23">
-        <v>0.1654400353570509</v>
+        <v>0.600872616121336</v>
       </c>
       <c r="E23">
-        <v>0.01824483927255649</v>
+        <v>3.03637255775223</v>
       </c>
       <c r="F23">
-        <v>11.49350145616114</v>
+        <v>12.31568343274768</v>
       </c>
       <c r="G23">
-        <v>0.000849609911007702</v>
+        <v>0.0006659818291808603</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2669936061001934</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.540883463764089</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1191518241733931</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.543512536446428</v>
+        <v>6.103567020224034</v>
       </c>
       <c r="C24">
-        <v>0.08541792798484948</v>
+        <v>1.755432162945965</v>
       </c>
       <c r="D24">
-        <v>0.14186401975563</v>
+        <v>0.4948847683158704</v>
       </c>
       <c r="E24">
-        <v>0.01800472845253331</v>
+        <v>2.430101090143168</v>
       </c>
       <c r="F24">
-        <v>10.17216520024857</v>
+        <v>10.13367983991688</v>
       </c>
       <c r="G24">
-        <v>0.00086491346174638</v>
+        <v>0.0006940760912558396</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2427096993500513</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.315470553284911</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1059994944489517</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.30079547622779</v>
+        <v>4.76892253653881</v>
       </c>
       <c r="C25">
-        <v>0.06759145652873855</v>
+        <v>1.365482018976479</v>
       </c>
       <c r="D25">
-        <v>0.1174281706334881</v>
+        <v>0.3945066067678624</v>
       </c>
       <c r="E25">
-        <v>0.01788325685296055</v>
+        <v>1.867542477264166</v>
       </c>
       <c r="F25">
-        <v>8.801884932253159</v>
+        <v>8.040232194133921</v>
       </c>
       <c r="G25">
-        <v>0.000881722429811053</v>
+        <v>0.0007229166982805069</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2175783258775397</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.088846971883981</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.09341044427137746</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,31 +415,37 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.869090591705742</v>
+        <v>3.592193807253011</v>
       </c>
       <c r="C2">
-        <v>1.104745911581944</v>
+        <v>0.9728239593682986</v>
       </c>
       <c r="D2">
-        <v>0.3278482989888687</v>
+        <v>0.3515597420837508</v>
       </c>
       <c r="E2">
-        <v>1.498654169906317</v>
+        <v>1.413454056897237</v>
       </c>
       <c r="F2">
-        <v>6.635873520255558</v>
+        <v>6.643519541856051</v>
       </c>
       <c r="G2">
-        <v>0.0007437127231291205</v>
+        <v>0.0007750257785415873</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01799275965849567</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -462,31 +468,37 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.292915343289508</v>
+        <v>3.094737136111462</v>
       </c>
       <c r="C3">
-        <v>0.9385230912519091</v>
+        <v>0.8385189313133594</v>
       </c>
       <c r="D3">
-        <v>0.2856247266611547</v>
+        <v>0.3084519180545016</v>
       </c>
       <c r="E3">
-        <v>1.26642903220683</v>
+        <v>1.209056049506927</v>
       </c>
       <c r="F3">
-        <v>5.740628530079618</v>
+        <v>5.797049498982659</v>
       </c>
       <c r="G3">
-        <v>0.000757803057901766</v>
+        <v>0.0007848095910370331</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01098235956438964</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -509,31 +521,37 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.951327824156692</v>
+        <v>2.794447868647239</v>
       </c>
       <c r="C4">
-        <v>0.8401863449115581</v>
+        <v>0.7573603672388458</v>
       </c>
       <c r="D4">
-        <v>0.2607697280726882</v>
+        <v>0.2826156348752562</v>
       </c>
       <c r="E4">
-        <v>1.130126361199331</v>
+        <v>1.086497025992742</v>
       </c>
       <c r="F4">
-        <v>5.211660616999353</v>
+        <v>5.289030495239814</v>
       </c>
       <c r="G4">
-        <v>0.0007665192320742595</v>
+        <v>0.0007909192209934907</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007476543439597694</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -556,31 +574,37 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.814651053569776</v>
+        <v>2.673157674641629</v>
       </c>
       <c r="C5">
-        <v>0.8008737998413835</v>
+        <v>0.7245557031730812</v>
       </c>
       <c r="D5">
-        <v>0.2508628126613104</v>
+        <v>0.2722186794152464</v>
       </c>
       <c r="E5">
-        <v>1.075863128695488</v>
+        <v>1.037177375852764</v>
       </c>
       <c r="F5">
-        <v>5.000427111763315</v>
+        <v>5.084493103539671</v>
       </c>
       <c r="G5">
-        <v>0.0007700955535800399</v>
+        <v>0.0007934375920689807</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.006226574508866101</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -603,31 +627,37 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.792094130573673</v>
+        <v>2.653076913637335</v>
       </c>
       <c r="C6">
-        <v>0.7943873037310141</v>
+        <v>0.7191230762707619</v>
       </c>
       <c r="D6">
-        <v>0.2492299167691385</v>
+        <v>0.2704994688046298</v>
       </c>
       <c r="E6">
-        <v>1.066922367830301</v>
+        <v>1.029022424585079</v>
       </c>
       <c r="F6">
-        <v>4.965589858726418</v>
+        <v>5.050667260822962</v>
       </c>
       <c r="G6">
-        <v>0.0007706910880035404</v>
+        <v>0.0007938575755114414</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.00602920484120073</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -650,31 +680,37 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.949474991803129</v>
+        <v>2.792808000874118</v>
       </c>
       <c r="C7">
-        <v>0.8396532948888478</v>
+        <v>0.7569169410717791</v>
       </c>
       <c r="D7">
-        <v>0.2606352797066194</v>
+        <v>0.2824749195000749</v>
       </c>
       <c r="E7">
-        <v>1.12938971838085</v>
+        <v>1.085829501060758</v>
       </c>
       <c r="F7">
-        <v>5.208795406155929</v>
+        <v>5.286262549375977</v>
       </c>
       <c r="G7">
-        <v>0.0007665673549488928</v>
+        <v>0.0007909530650476978</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.007458990086647188</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -697,31 +733,37 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.6675410122877</v>
+        <v>3.419464390638552</v>
       </c>
       <c r="C8">
-        <v>1.046543339692192</v>
+        <v>0.9262062584412831</v>
       </c>
       <c r="D8">
-        <v>0.3130363585852933</v>
+        <v>0.3365475539058593</v>
       </c>
       <c r="E8">
-        <v>1.41708081146524</v>
+        <v>1.342293390315518</v>
       </c>
       <c r="F8">
-        <v>6.322315476670298</v>
+        <v>6.348931269709993</v>
       </c>
       <c r="G8">
-        <v>0.0007485629914414371</v>
+        <v>0.0007783798507598116</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01539576850346602</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -744,31 +786,37 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.202712292611295</v>
+        <v>4.700372571961736</v>
       </c>
       <c r="C9">
-        <v>1.491766529190727</v>
+        <v>1.271674211786546</v>
       </c>
       <c r="D9">
-        <v>0.4269393464070106</v>
+        <v>0.4490088317559042</v>
       </c>
       <c r="E9">
-        <v>2.048269869643008</v>
+        <v>1.874524697580242</v>
       </c>
       <c r="F9">
-        <v>8.719465186564719</v>
+        <v>8.54954363176509</v>
       </c>
       <c r="G9">
-        <v>0.0007133136491433303</v>
+        <v>0.0007543859231021604</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.03843096486116337</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -791,31 +839,37 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.463671731928628</v>
+        <v>5.681851589069709</v>
       </c>
       <c r="C10">
-        <v>1.861408775469329</v>
+        <v>1.534933543203579</v>
       </c>
       <c r="D10">
-        <v>0.5222620816065842</v>
+        <v>0.5145970482402049</v>
       </c>
       <c r="E10">
-        <v>2.585351906101806</v>
+        <v>2.181156984318235</v>
       </c>
       <c r="F10">
-        <v>10.7001295017497</v>
+        <v>10.01261651337683</v>
       </c>
       <c r="G10">
-        <v>0.0006866164722787164</v>
+        <v>0.0007377085274875015</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.05986773334596052</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -838,31 +892,37 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.08447099076642</v>
+        <v>6.060852215372392</v>
       </c>
       <c r="C11">
-        <v>2.044950820287738</v>
+        <v>1.625702091616631</v>
       </c>
       <c r="D11">
-        <v>0.5697417279156696</v>
+        <v>0.3624039816228475</v>
       </c>
       <c r="E11">
-        <v>2.856771504377136</v>
+        <v>1.458407103050831</v>
       </c>
       <c r="F11">
-        <v>11.67785285994654</v>
+        <v>8.520065099429274</v>
       </c>
       <c r="G11">
-        <v>0.0006740234843875903</v>
+        <v>0.0007365039337319664</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.07345247542934885</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -885,31 +945,37 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.328571152713948</v>
+        <v>6.176123717061955</v>
       </c>
       <c r="C12">
-        <v>2.117427780801279</v>
+        <v>1.648966458223526</v>
       </c>
       <c r="D12">
-        <v>0.5885073197268582</v>
+        <v>0.2453812846150498</v>
       </c>
       <c r="E12">
-        <v>2.964870090642748</v>
+        <v>0.9249065467925845</v>
       </c>
       <c r="F12">
-        <v>12.06264309303924</v>
+        <v>7.091009358015953</v>
       </c>
       <c r="G12">
-        <v>0.0006691567471939022</v>
+        <v>0.0007383314655146549</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1058802324509287</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -932,31 +998,37 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.275554054881241</v>
+        <v>6.095938445200261</v>
       </c>
       <c r="C13">
-        <v>2.101670983166912</v>
+        <v>1.622067523157682</v>
       </c>
       <c r="D13">
-        <v>0.58442696306318</v>
+        <v>0.149689935231109</v>
       </c>
       <c r="E13">
-        <v>2.941323476956214</v>
+        <v>0.5102820872318716</v>
       </c>
       <c r="F13">
-        <v>11.97905445325648</v>
+        <v>5.64520361269075</v>
       </c>
       <c r="G13">
-        <v>0.0006702099212943329</v>
+        <v>0.000742548817204121</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1542586976334093</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -979,31 +1051,37 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.104356758336053</v>
+        <v>5.954518088575412</v>
       </c>
       <c r="C14">
-        <v>2.05084853859745</v>
+        <v>1.581582639859732</v>
       </c>
       <c r="D14">
-        <v>0.571268457492522</v>
+        <v>0.09610097634316617</v>
       </c>
       <c r="E14">
-        <v>2.86554799980604</v>
+        <v>0.2949742734336169</v>
       </c>
       <c r="F14">
-        <v>11.70919345391218</v>
+        <v>4.656702487624585</v>
       </c>
       <c r="G14">
-        <v>0.0006736252978828791</v>
+        <v>0.0007464675467949619</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1983802917773119</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1026,31 +1104,37 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.00074807254731</v>
+        <v>5.878355865463732</v>
       </c>
       <c r="C15">
-        <v>2.020133084844645</v>
+        <v>1.560849980898581</v>
       </c>
       <c r="D15">
-        <v>0.5633178486194481</v>
+        <v>0.0845554914513329</v>
       </c>
       <c r="E15">
-        <v>2.819877994524219</v>
+        <v>0.2506742056944766</v>
       </c>
       <c r="F15">
-        <v>11.54591643366126</v>
+        <v>4.39810619960187</v>
       </c>
       <c r="G15">
-        <v>0.000675703335704542</v>
+        <v>0.0007480092756644297</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2091117149792723</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1073,31 +1157,37 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.424223654653986</v>
+        <v>5.476528216380643</v>
       </c>
       <c r="C16">
-        <v>1.849782383921365</v>
+        <v>1.455231859980813</v>
       </c>
       <c r="D16">
-        <v>0.5192570740193219</v>
+        <v>0.08257916679567501</v>
       </c>
       <c r="E16">
-        <v>2.568268379124916</v>
+        <v>0.23218824738451</v>
       </c>
       <c r="F16">
-        <v>10.63804998064421</v>
+        <v>4.141679871048069</v>
       </c>
       <c r="G16">
-        <v>0.0006874278300959101</v>
+        <v>0.0007540487573626753</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1901492739375641</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1120,31 +1210,37 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.083985265651677</v>
+        <v>5.243095403503958</v>
       </c>
       <c r="C17">
-        <v>1.74967925505041</v>
+        <v>1.395375546797482</v>
       </c>
       <c r="D17">
-        <v>0.4933995490309258</v>
+        <v>0.1065278786778023</v>
       </c>
       <c r="E17">
-        <v>2.421703187807424</v>
+        <v>0.3159033873218107</v>
       </c>
       <c r="F17">
-        <v>10.10289414216493</v>
+        <v>4.446211343870061</v>
       </c>
       <c r="G17">
-        <v>0.0006944852374395349</v>
+        <v>0.000756690802023105</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1501246063140087</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1167,31 +1263,37 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.892560823670976</v>
+        <v>5.126723217684912</v>
       </c>
       <c r="C18">
-        <v>1.693493160134778</v>
+        <v>1.368304605023354</v>
       </c>
       <c r="D18">
-        <v>0.4788997599790434</v>
+        <v>0.1667518495850544</v>
       </c>
       <c r="E18">
-        <v>2.339843746202689</v>
+        <v>0.5620078106294812</v>
       </c>
       <c r="F18">
-        <v>9.802041018714419</v>
+        <v>5.330518548724257</v>
       </c>
       <c r="G18">
-        <v>0.0006985048257280441</v>
+        <v>0.0007564029556796089</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.09872645696575688</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1214,31 +1316,37 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.828425562121311</v>
+        <v>5.117342187922588</v>
       </c>
       <c r="C19">
-        <v>1.674689419313893</v>
+        <v>1.371728868720254</v>
       </c>
       <c r="D19">
-        <v>0.4740495448535285</v>
+        <v>0.2703118587963331</v>
       </c>
       <c r="E19">
-        <v>2.312511968272219</v>
+        <v>1.02543288285132</v>
       </c>
       <c r="F19">
-        <v>9.701283292199292</v>
+        <v>6.734736769748025</v>
       </c>
       <c r="G19">
-        <v>0.0006998598190865405</v>
+        <v>0.0007532705843329435</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.05929253359585118</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1261,31 +1369,37 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.119748412428692</v>
+        <v>5.419749786727493</v>
       </c>
       <c r="C20">
-        <v>1.760186838715697</v>
+        <v>1.464585242450767</v>
       </c>
       <c r="D20">
-        <v>0.4961123540601022</v>
+        <v>0.4960211483651449</v>
       </c>
       <c r="E20">
-        <v>2.437044104630658</v>
+        <v>2.094196196223379</v>
       </c>
       <c r="F20">
-        <v>10.15912097007671</v>
+        <v>9.609822284096936</v>
       </c>
       <c r="G20">
-        <v>0.0006937382734403594</v>
+        <v>0.0007421174685810888</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.05368000980545684</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1308,31 +1422,37 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.154374863364637</v>
+        <v>6.209845449863394</v>
       </c>
       <c r="C21">
-        <v>2.065688090290337</v>
+        <v>1.678709832720926</v>
       </c>
       <c r="D21">
-        <v>0.5751101848300664</v>
+        <v>0.5849397475758167</v>
       </c>
       <c r="E21">
-        <v>2.887646484235404</v>
+        <v>2.514291418895596</v>
       </c>
       <c r="F21">
-        <v>11.78802886964667</v>
+        <v>11.18677187458462</v>
       </c>
       <c r="G21">
-        <v>0.0006726251112156297</v>
+        <v>0.0007280661428483715</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.07568729869335122</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1355,31 +1475,37 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.884855886698745</v>
+        <v>6.738257924722575</v>
       </c>
       <c r="C22">
-        <v>2.283282165834066</v>
+        <v>1.821332885957645</v>
       </c>
       <c r="D22">
-        <v>0.6314726412728078</v>
+        <v>0.6333957058354827</v>
       </c>
       <c r="E22">
-        <v>3.214297175114268</v>
+        <v>2.741253936927322</v>
       </c>
       <c r="F22">
-        <v>12.94011826465407</v>
+        <v>12.12027205584155</v>
       </c>
       <c r="G22">
-        <v>0.0006582287118990811</v>
+        <v>0.0007192112577410468</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.09106913576158249</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1402,31 +1528,37 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.489036152901463</v>
+        <v>6.454518149203068</v>
       </c>
       <c r="C23">
-        <v>2.165170641705231</v>
+        <v>1.74473614813877</v>
       </c>
       <c r="D23">
-        <v>0.600872616121336</v>
+        <v>0.6073203822525954</v>
       </c>
       <c r="E23">
-        <v>3.03637255775223</v>
+        <v>2.619194450518933</v>
       </c>
       <c r="F23">
-        <v>12.31568343274768</v>
+        <v>11.61837536592122</v>
       </c>
       <c r="G23">
-        <v>0.0006659818291808603</v>
+        <v>0.0007239461921763119</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.08266464601225998</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1449,31 +1581,37 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.103567020224034</v>
+        <v>5.414200745083178</v>
       </c>
       <c r="C24">
-        <v>1.755432162945965</v>
+        <v>1.464117913225209</v>
       </c>
       <c r="D24">
-        <v>0.4948847683158704</v>
+        <v>0.5128304563538677</v>
       </c>
       <c r="E24">
-        <v>2.430101090143168</v>
+        <v>2.17544961145046</v>
       </c>
       <c r="F24">
-        <v>10.13367983991688</v>
+        <v>9.791084174102934</v>
       </c>
       <c r="G24">
-        <v>0.0006940760912558396</v>
+        <v>0.0007417274527224171</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.05477513114257526</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1496,31 +1634,37 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.76892253653881</v>
+        <v>4.346564607016091</v>
       </c>
       <c r="C25">
-        <v>1.365482018976479</v>
+        <v>1.176287933780657</v>
       </c>
       <c r="D25">
-        <v>0.3945066067678624</v>
+        <v>0.4176814302950334</v>
       </c>
       <c r="E25">
-        <v>1.867542477264166</v>
+        <v>1.726490941428352</v>
       </c>
       <c r="F25">
-        <v>8.040232194133921</v>
+        <v>7.938087217534076</v>
       </c>
       <c r="G25">
-        <v>0.0007229166982805069</v>
+        <v>0.0007608289724725436</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.03122623659395796</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_0/res_line/pl_mw.xlsx
@@ -427,43 +427,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.592193807253011</v>
+        <v>1.04385182891744</v>
       </c>
       <c r="C2">
-        <v>0.9728239593682986</v>
+        <v>0.09413454237079577</v>
       </c>
       <c r="D2">
-        <v>0.3515597420837508</v>
+        <v>0.04303516009729691</v>
       </c>
       <c r="E2">
-        <v>1.413454056897237</v>
+        <v>0.03908907544184004</v>
       </c>
       <c r="F2">
-        <v>6.643519541856051</v>
+        <v>1.329879858142661</v>
       </c>
       <c r="G2">
-        <v>0.0007750257785415873</v>
+        <v>1.07241976931067</v>
       </c>
       <c r="H2">
-        <v>0.01799275965849567</v>
+        <v>0.02000740078472996</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.7570710835671548</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8168144458957656</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.05747954986053472</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9702809813241231</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.199986060688687</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -480,43 +480,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.094737136111462</v>
+        <v>0.9098738871720684</v>
       </c>
       <c r="C3">
-        <v>0.8385189313133594</v>
+        <v>0.08344099540249772</v>
       </c>
       <c r="D3">
-        <v>0.3084519180545016</v>
+        <v>0.03767649629832448</v>
       </c>
       <c r="E3">
-        <v>1.209056049506927</v>
+        <v>0.03558659694449595</v>
       </c>
       <c r="F3">
-        <v>5.797049498982659</v>
+        <v>1.283076519962435</v>
       </c>
       <c r="G3">
-        <v>0.0007848095910370331</v>
+        <v>1.035834600269681</v>
       </c>
       <c r="H3">
-        <v>0.01098235956438964</v>
+        <v>0.02499162089995866</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.7457032106127315</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8041743023258547</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.053755650805833</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8434838215531499</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1764159028750285</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -533,43 +533,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.794447868647239</v>
+        <v>0.8278203139691698</v>
       </c>
       <c r="C4">
-        <v>0.7573603672388458</v>
+        <v>0.07688135669327067</v>
       </c>
       <c r="D4">
-        <v>0.2826156348752562</v>
+        <v>0.03438998101803747</v>
       </c>
       <c r="E4">
-        <v>1.086497025992742</v>
+        <v>0.0334355759026419</v>
       </c>
       <c r="F4">
-        <v>5.289030495239814</v>
+        <v>1.255550508324681</v>
       </c>
       <c r="G4">
-        <v>0.0007909192209934907</v>
+        <v>1.014525289958144</v>
       </c>
       <c r="H4">
-        <v>0.007476543439597694</v>
+        <v>0.02844236893317553</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.7394000595923984</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7971696380993123</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05145364667789565</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7658088755837866</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1619586368864603</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -586,43 +586,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.673157674641629</v>
+        <v>0.7944247210909055</v>
       </c>
       <c r="C5">
-        <v>0.7245557031730812</v>
+        <v>0.07420829776452109</v>
       </c>
       <c r="D5">
-        <v>0.2722186794152464</v>
+        <v>0.03305120043116716</v>
       </c>
       <c r="E5">
-        <v>1.037177375852764</v>
+        <v>0.03255835576293187</v>
       </c>
       <c r="F5">
-        <v>5.084493103539671</v>
+        <v>1.244624346282848</v>
       </c>
       <c r="G5">
-        <v>0.0007934375920689807</v>
+        <v>1.006118045731782</v>
       </c>
       <c r="H5">
-        <v>0.006226574508866101</v>
+        <v>0.02994306559709115</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.7369954968174568</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7944980436141265</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05051093943649398</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7341897290415034</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.156068832352517</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -639,43 +639,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.653076913637335</v>
+        <v>0.7888816367531319</v>
       </c>
       <c r="C6">
-        <v>0.7191230762707619</v>
+        <v>0.07376439834106918</v>
       </c>
       <c r="D6">
-        <v>0.2704994688046298</v>
+        <v>0.03282891502155394</v>
       </c>
       <c r="E6">
-        <v>1.029022424585079</v>
+        <v>0.03241263878487821</v>
       </c>
       <c r="F6">
-        <v>5.050667260822962</v>
+        <v>1.242827246686744</v>
       </c>
       <c r="G6">
-        <v>0.0007938575755114414</v>
+        <v>1.004738337657344</v>
       </c>
       <c r="H6">
-        <v>0.00602920484120073</v>
+        <v>0.03019785707338918</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.7366059529552729</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.794065263248612</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05035410396093809</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7289411396147045</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1550908750192619</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -692,43 +692,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.792808000874118</v>
+        <v>0.8273697734228165</v>
       </c>
       <c r="C7">
-        <v>0.7569169410717791</v>
+        <v>0.07684530864536043</v>
       </c>
       <c r="D7">
-        <v>0.2824749195000749</v>
+        <v>0.03437192428091151</v>
       </c>
       <c r="E7">
-        <v>1.085829501060758</v>
+        <v>0.03342374877847654</v>
       </c>
       <c r="F7">
-        <v>5.286262549375977</v>
+        <v>1.255401994058118</v>
       </c>
       <c r="G7">
-        <v>0.0007909530650476978</v>
+        <v>1.014410805196022</v>
       </c>
       <c r="H7">
-        <v>0.007458990086647188</v>
+        <v>0.0284622300320736</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.7393669746237208</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7971328771058523</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05144095264333615</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7653823250238929</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1618792009460535</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -745,43 +745,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.419464390638552</v>
+        <v>0.9976060615195763</v>
       </c>
       <c r="C8">
-        <v>0.9262062584412831</v>
+        <v>0.09044516546074988</v>
       </c>
       <c r="D8">
-        <v>0.3365475539058593</v>
+        <v>0.04118644643164515</v>
       </c>
       <c r="E8">
-        <v>1.342293390315518</v>
+        <v>0.03788118777471716</v>
       </c>
       <c r="F8">
-        <v>6.348931269709993</v>
+        <v>1.313482172169728</v>
       </c>
       <c r="G8">
-        <v>0.0007783798507598116</v>
+        <v>1.059557182566778</v>
       </c>
       <c r="H8">
-        <v>0.01539576850346602</v>
+        <v>0.02164266604765264</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.7530071783174606</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8122945955001626</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.05619832601198027</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9265173155959587</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1918546735467288</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -798,43 +798,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.700372571961736</v>
+        <v>1.333633087740225</v>
       </c>
       <c r="C9">
-        <v>1.271674211786546</v>
+        <v>0.117238240734423</v>
       </c>
       <c r="D9">
-        <v>0.4490088317559042</v>
+        <v>0.05460107383278512</v>
       </c>
       <c r="E9">
-        <v>1.874524697580242</v>
+        <v>0.046644357997355</v>
       </c>
       <c r="F9">
-        <v>8.54954363176509</v>
+        <v>1.43764552462531</v>
       </c>
       <c r="G9">
-        <v>0.0007543859231021604</v>
+        <v>1.157903150517811</v>
       </c>
       <c r="H9">
-        <v>0.03843096486116337</v>
+        <v>0.01154045504980085</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7854194782169515</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8483787293206788</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06543866836499035</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.244465600278176</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2508573580104638</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -851,43 +851,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.681851589069709</v>
+        <v>1.581026679759077</v>
       </c>
       <c r="C10">
-        <v>1.534933543203579</v>
+        <v>0.1382524548818935</v>
       </c>
       <c r="D10">
-        <v>0.5145970482402049</v>
+        <v>0.06385077838980635</v>
       </c>
       <c r="E10">
-        <v>2.181156984318235</v>
+        <v>0.05124914067116215</v>
       </c>
       <c r="F10">
-        <v>10.01261651337683</v>
+        <v>1.512600742768797</v>
       </c>
       <c r="G10">
-        <v>0.0007377085274875015</v>
+        <v>1.216307131898077</v>
       </c>
       <c r="H10">
-        <v>0.05986773334596052</v>
+        <v>0.006756977203231873</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.802629599055507</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8653861252011836</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06956319995316207</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.481371570855259</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2857524319889251</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -904,43 +904,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.060852215372392</v>
+        <v>1.679676918844649</v>
       </c>
       <c r="C11">
-        <v>1.625702091616631</v>
+        <v>0.158399345217191</v>
       </c>
       <c r="D11">
-        <v>0.3624039816228475</v>
+        <v>0.06226170435826361</v>
       </c>
       <c r="E11">
-        <v>1.458407103050831</v>
+        <v>0.03889697728956598</v>
       </c>
       <c r="F11">
-        <v>8.520065099429274</v>
+        <v>1.350760895222507</v>
       </c>
       <c r="G11">
-        <v>0.0007365039337319664</v>
+        <v>1.070278644918787</v>
       </c>
       <c r="H11">
-        <v>0.07345247542934885</v>
+        <v>0.02494256150944452</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7233311183641149</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.7589335919924025</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.05384546461752215</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.601337501490207</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2300614652554316</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -957,43 +957,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.176123717061955</v>
+        <v>1.710085805698583</v>
       </c>
       <c r="C12">
-        <v>1.648966458223526</v>
+        <v>0.1717683986943968</v>
       </c>
       <c r="D12">
-        <v>0.2453812846150498</v>
+        <v>0.05896221747661201</v>
       </c>
       <c r="E12">
-        <v>0.9249065467925845</v>
+        <v>0.03007609817221812</v>
       </c>
       <c r="F12">
-        <v>7.091009358015953</v>
+        <v>1.205631148570987</v>
       </c>
       <c r="G12">
-        <v>0.0007383314655146549</v>
+        <v>0.9420391891068505</v>
       </c>
       <c r="H12">
-        <v>0.1058802324509287</v>
+        <v>0.06382607657661765</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6561419178488705</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6718870886679156</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.04716832261739123</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.652968388415559</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1814280867860489</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1010,43 +1010,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.095938445200261</v>
+        <v>1.689404929066853</v>
       </c>
       <c r="C13">
-        <v>1.622067523157682</v>
+        <v>0.180524655002344</v>
       </c>
       <c r="D13">
-        <v>0.149689935231109</v>
+        <v>0.05417864124206773</v>
       </c>
       <c r="E13">
-        <v>0.5102820872318716</v>
+        <v>0.02348118466613869</v>
       </c>
       <c r="F13">
-        <v>5.64520361269075</v>
+        <v>1.064817548443614</v>
       </c>
       <c r="G13">
-        <v>0.000742548817204121</v>
+        <v>0.8197901875716553</v>
       </c>
       <c r="H13">
-        <v>0.1542586976334093</v>
+        <v>0.1203077799619194</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5941504679873475</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5944281606999766</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0469475144159972</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.654431021794124</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1357477896342019</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1063,43 +1063,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.954518088575412</v>
+        <v>1.651881221375248</v>
       </c>
       <c r="C14">
-        <v>1.581582639859732</v>
+        <v>0.1845857704195168</v>
       </c>
       <c r="D14">
-        <v>0.09610097634316617</v>
+        <v>0.05019513139547627</v>
       </c>
       <c r="E14">
-        <v>0.2949742734336169</v>
+        <v>0.02024935570076458</v>
       </c>
       <c r="F14">
-        <v>4.656702487624585</v>
+        <v>0.9699526509482297</v>
       </c>
       <c r="G14">
-        <v>0.0007464675467949619</v>
+        <v>0.7385424213113794</v>
       </c>
       <c r="H14">
-        <v>0.1983802917773119</v>
+        <v>0.1704115667775739</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5538466026917916</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5457185100955257</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05064480719824616</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.632763139520108</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1062125138322543</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1116,43 +1116,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.878355865463732</v>
+        <v>1.631945570981372</v>
       </c>
       <c r="C15">
-        <v>1.560849980898581</v>
+        <v>0.1844594421863519</v>
       </c>
       <c r="D15">
-        <v>0.0845554914513329</v>
+        <v>0.04891929610958812</v>
       </c>
       <c r="E15">
-        <v>0.2506742056944766</v>
+        <v>0.01960786780551249</v>
       </c>
       <c r="F15">
-        <v>4.39810619960187</v>
+        <v>0.9469575158179282</v>
       </c>
       <c r="G15">
-        <v>0.0007480092756644297</v>
+        <v>0.7191799074273177</v>
       </c>
       <c r="H15">
-        <v>0.2091117149792723</v>
+        <v>0.1832851461355176</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5447401828889298</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5351090748535121</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05192530446023724</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.616698800744473</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.09898643259576545</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1169,43 +1169,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.476528216380643</v>
+        <v>1.529549076367914</v>
       </c>
       <c r="C16">
-        <v>1.455231859980813</v>
+        <v>0.1731938006278142</v>
       </c>
       <c r="D16">
-        <v>0.08257916679567501</v>
+        <v>0.04604350640497756</v>
       </c>
       <c r="E16">
-        <v>0.23218824738451</v>
+        <v>0.01916845045142468</v>
       </c>
       <c r="F16">
-        <v>4.141679871048069</v>
+        <v>0.9443675443237325</v>
       </c>
       <c r="G16">
-        <v>0.0007540487573626753</v>
+        <v>0.7194345820847161</v>
       </c>
       <c r="H16">
-        <v>0.1901492739375641</v>
+        <v>0.1725239141063497</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5499094720968856</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.543524785066996</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.05014090140552341</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.513521128751336</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.09478801165559503</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1222,43 +1222,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.243095403503958</v>
+        <v>1.47114824270227</v>
       </c>
       <c r="C17">
-        <v>1.395375546797482</v>
+        <v>0.162429552206504</v>
       </c>
       <c r="D17">
-        <v>0.1065278786778023</v>
+        <v>0.04593055183283212</v>
       </c>
       <c r="E17">
-        <v>0.3159033873218107</v>
+        <v>0.02028359774163313</v>
       </c>
       <c r="F17">
-        <v>4.446211343870061</v>
+        <v>0.9920694818564613</v>
       </c>
       <c r="G17">
-        <v>0.000756690802023105</v>
+        <v>0.7621740152973757</v>
       </c>
       <c r="H17">
-        <v>0.1501246063140087</v>
+        <v>0.135901724484853</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5750670005019316</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5753970560991242</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.04617597740558033</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.446171835268274</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.106454031865745</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1275,43 +1275,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.126723217684912</v>
+        <v>1.443485568980748</v>
       </c>
       <c r="C18">
-        <v>1.368304605023354</v>
+        <v>0.1511726934994897</v>
       </c>
       <c r="D18">
-        <v>0.1667518495850544</v>
+        <v>0.04819784930140258</v>
       </c>
       <c r="E18">
-        <v>0.5620078106294812</v>
+        <v>0.02414488059451969</v>
       </c>
       <c r="F18">
-        <v>5.330518548724257</v>
+        <v>1.092574137302357</v>
       </c>
       <c r="G18">
-        <v>0.0007564029556796089</v>
+        <v>0.8503483544099026</v>
       </c>
       <c r="H18">
-        <v>0.09872645696575688</v>
+        <v>0.0833505223943547</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6221556222961482</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.6344758810235902</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.04348286388442579</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.401871759684923</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1361294674065405</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1328,43 +1328,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.117342187922588</v>
+        <v>1.442312312470534</v>
       </c>
       <c r="C19">
-        <v>1.371728868720254</v>
+        <v>0.140754561336891</v>
       </c>
       <c r="D19">
-        <v>0.2703118587963331</v>
+        <v>0.05228102380694821</v>
       </c>
       <c r="E19">
-        <v>1.02543288285132</v>
+        <v>0.03188109699934039</v>
       </c>
       <c r="F19">
-        <v>6.734736769748025</v>
+        <v>1.235367234166063</v>
       </c>
       <c r="G19">
-        <v>0.0007532705843329435</v>
+        <v>0.9755414300712886</v>
       </c>
       <c r="H19">
-        <v>0.05929253359585118</v>
+        <v>0.03733144570911406</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.686672370794227</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7166821634417104</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.047338448181522</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.379459885735457</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.182956452347014</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1381,43 +1381,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.419749786727493</v>
+        <v>1.515833234007602</v>
       </c>
       <c r="C20">
-        <v>1.464585242450767</v>
+        <v>0.1327607553859167</v>
       </c>
       <c r="D20">
-        <v>0.4960211483651449</v>
+        <v>0.06138968585533178</v>
       </c>
       <c r="E20">
-        <v>2.094196196223379</v>
+        <v>0.04995643730191013</v>
       </c>
       <c r="F20">
-        <v>9.609822284096936</v>
+        <v>1.491408842103837</v>
       </c>
       <c r="G20">
-        <v>0.0007421174685810888</v>
+        <v>1.199586408788662</v>
       </c>
       <c r="H20">
-        <v>0.05368000980545684</v>
+        <v>0.007853433249215946</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7973844356789215</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.8600106756626502</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06836213980171735</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.419052624337866</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2762113891483438</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1434,43 +1434,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.209845449863394</v>
+        <v>1.709090123298353</v>
       </c>
       <c r="C21">
-        <v>1.678709832720926</v>
+        <v>0.1472167768396133</v>
       </c>
       <c r="D21">
-        <v>0.5849397475758167</v>
+        <v>0.06955365349595866</v>
       </c>
       <c r="E21">
-        <v>2.514291418895596</v>
+        <v>0.05643383594834717</v>
       </c>
       <c r="F21">
-        <v>11.18677187458462</v>
+        <v>1.587842515682993</v>
       </c>
       <c r="G21">
-        <v>0.0007280661428483715</v>
+        <v>1.279073608950966</v>
       </c>
       <c r="H21">
-        <v>0.07568729869335122</v>
+        <v>0.004377885791201019</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.8281827106783766</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8961009913993365</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07566050201043595</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.599718217980268</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3166317263185334</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1487,43 +1487,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.738257924722575</v>
+        <v>1.835235696256291</v>
       </c>
       <c r="C22">
-        <v>1.821332885957645</v>
+        <v>0.1573160258188722</v>
       </c>
       <c r="D22">
-        <v>0.6333957058354827</v>
+        <v>0.07457196335742822</v>
       </c>
       <c r="E22">
-        <v>2.741253936927322</v>
+        <v>0.05972965512117057</v>
       </c>
       <c r="F22">
-        <v>12.12027205584155</v>
+        <v>1.640542701797727</v>
       </c>
       <c r="G22">
-        <v>0.0007192112577410468</v>
+        <v>1.322016913624765</v>
       </c>
       <c r="H22">
-        <v>0.09106913576158249</v>
+        <v>0.00279065913575649</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8438180738465348</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9135782301818693</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07908833102521129</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.71909888397056</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3387085952494573</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1540,43 +1540,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.454518149203068</v>
+        <v>1.767842986377332</v>
       </c>
       <c r="C23">
-        <v>1.74473614813877</v>
+        <v>0.1519184373835145</v>
       </c>
       <c r="D23">
-        <v>0.6073203822525954</v>
+        <v>0.07189121680414701</v>
       </c>
       <c r="E23">
-        <v>2.619194450518933</v>
+        <v>0.05796828901906181</v>
       </c>
       <c r="F23">
-        <v>11.61837536592122</v>
+        <v>1.612258861819555</v>
       </c>
       <c r="G23">
-        <v>0.0007239461921763119</v>
+        <v>1.298945034679306</v>
       </c>
       <c r="H23">
-        <v>0.08266464601225998</v>
+        <v>0.003590990724831822</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.835392102578993</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9041578803150188</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07725702876428997</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.655318256562481</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3269151904721923</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1593,43 +1593,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.414200745083178</v>
+        <v>1.513963111843537</v>
       </c>
       <c r="C24">
-        <v>1.464117913225209</v>
+        <v>0.1316246593157899</v>
       </c>
       <c r="D24">
-        <v>0.5128304563538677</v>
+        <v>0.06178629035027683</v>
       </c>
       <c r="E24">
-        <v>2.17544961145046</v>
+        <v>0.05134363427475641</v>
       </c>
       <c r="F24">
-        <v>9.791084174102934</v>
+        <v>1.508460497977012</v>
       </c>
       <c r="G24">
-        <v>0.0007417274527224171</v>
+        <v>1.214785821837438</v>
       </c>
       <c r="H24">
-        <v>0.05477513114257526</v>
+        <v>0.00761841127687346</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.8052062991225597</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.8704450433922233</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07035471921665248</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.415082707438671</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2824628892708034</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1646,43 +1646,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.346564607016091</v>
+        <v>1.242413470630026</v>
       </c>
       <c r="C25">
-        <v>1.176287933780657</v>
+        <v>0.1099656713310111</v>
       </c>
       <c r="D25">
-        <v>0.4176814302950334</v>
+        <v>0.05096325016649672</v>
       </c>
       <c r="E25">
-        <v>1.726490941428352</v>
+        <v>0.04426746690341687</v>
       </c>
       <c r="F25">
-        <v>7.938087217534076</v>
+        <v>1.402860046063779</v>
       </c>
       <c r="G25">
-        <v>0.0007608289724725436</v>
+        <v>1.13015071087662</v>
       </c>
       <c r="H25">
-        <v>0.03122623659395796</v>
+        <v>0.01389805101506936</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7760014960493464</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8378855945724766</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06294339378322533</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.158160173334039</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2348565329258889</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.04385182891744</v>
+        <v>1.022007439268833</v>
       </c>
       <c r="C2">
-        <v>0.09413454237079577</v>
+        <v>0.10784867592794</v>
       </c>
       <c r="D2">
-        <v>0.04303516009729691</v>
+        <v>0.05184351682989075</v>
       </c>
       <c r="E2">
-        <v>0.03908907544184004</v>
+        <v>0.0386041130153334</v>
       </c>
       <c r="F2">
-        <v>1.329879858142661</v>
+        <v>1.145790267199963</v>
       </c>
       <c r="G2">
-        <v>1.07241976931067</v>
+        <v>0.8896698472435958</v>
       </c>
       <c r="H2">
-        <v>0.02000740078472996</v>
+        <v>0.01532793696725943</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7570710835671548</v>
+        <v>0.653566830962248</v>
       </c>
       <c r="K2">
-        <v>0.8168144458957656</v>
+        <v>0.6632104409249422</v>
       </c>
       <c r="L2">
-        <v>0.05747954986053472</v>
+        <v>0.2675009035523956</v>
       </c>
       <c r="M2">
-        <v>0.9702809813241231</v>
+        <v>0.2300368765185965</v>
       </c>
       <c r="N2">
-        <v>0.199986060688687</v>
+        <v>0.05109434644751332</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.007664536789974</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2272093893093938</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9098738871720684</v>
+        <v>0.8911456957965811</v>
       </c>
       <c r="C3">
-        <v>0.08344099540249772</v>
+        <v>0.09284848185527039</v>
       </c>
       <c r="D3">
-        <v>0.03767649629832448</v>
+        <v>0.04526100263728949</v>
       </c>
       <c r="E3">
-        <v>0.03558659694449595</v>
+        <v>0.03539962077386072</v>
       </c>
       <c r="F3">
-        <v>1.283076519962435</v>
+        <v>1.114849749665503</v>
       </c>
       <c r="G3">
-        <v>1.035834600269681</v>
+        <v>0.8726023179574867</v>
       </c>
       <c r="H3">
-        <v>0.02499162089995866</v>
+        <v>0.01925125889033408</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.7457032106127315</v>
+        <v>0.6433429954554128</v>
       </c>
       <c r="K3">
-        <v>0.8041743023258547</v>
+        <v>0.6604859284723332</v>
       </c>
       <c r="L3">
-        <v>0.053755650805833</v>
+        <v>0.2704819959243494</v>
       </c>
       <c r="M3">
-        <v>0.8434838215531499</v>
+        <v>0.2267090379939667</v>
       </c>
       <c r="N3">
-        <v>0.1764159028750285</v>
+        <v>0.04828124847780479</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8751257614674444</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2010268419536487</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8278203139691698</v>
+        <v>0.8107974407793677</v>
       </c>
       <c r="C4">
-        <v>0.07688135669327067</v>
+        <v>0.08371710186354164</v>
       </c>
       <c r="D4">
-        <v>0.03438998101803747</v>
+        <v>0.0412362630641141</v>
       </c>
       <c r="E4">
-        <v>0.0334355759026419</v>
+        <v>0.03342770474847612</v>
       </c>
       <c r="F4">
-        <v>1.255550508324681</v>
+        <v>1.096730788086475</v>
       </c>
       <c r="G4">
-        <v>1.014525289958144</v>
+        <v>0.8631663352935561</v>
       </c>
       <c r="H4">
-        <v>0.02844236893317553</v>
+        <v>0.02197534221651076</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.7394000595923984</v>
+        <v>0.6373232613762383</v>
       </c>
       <c r="K4">
-        <v>0.7971696380993123</v>
+        <v>0.6593225375965019</v>
       </c>
       <c r="L4">
-        <v>0.05145364667789565</v>
+        <v>0.2723595637595473</v>
       </c>
       <c r="M4">
-        <v>0.7658088755837866</v>
+        <v>0.2255369816588306</v>
       </c>
       <c r="N4">
-        <v>0.1619586368864603</v>
+        <v>0.04653153280788302</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7938709246673454</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1849936123734182</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7944247210909055</v>
+        <v>0.7780474797992269</v>
       </c>
       <c r="C5">
-        <v>0.07420829776452109</v>
+        <v>0.08001389930522862</v>
       </c>
       <c r="D5">
-        <v>0.03305120043116716</v>
+        <v>0.03960000680134357</v>
       </c>
       <c r="E5">
-        <v>0.03255835576293187</v>
+        <v>0.0326226241142944</v>
       </c>
       <c r="F5">
-        <v>1.244624346282848</v>
+        <v>1.089557763599302</v>
       </c>
       <c r="G5">
-        <v>1.006118045731782</v>
+        <v>0.8595709440897963</v>
       </c>
       <c r="H5">
-        <v>0.02994306559709115</v>
+        <v>0.02316175152866184</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.7369954968174568</v>
+        <v>0.6349322409122777</v>
       </c>
       <c r="K5">
-        <v>0.7944980436141265</v>
+        <v>0.6589714969989906</v>
       </c>
       <c r="L5">
-        <v>0.05051093943649398</v>
+        <v>0.2731362322080066</v>
       </c>
       <c r="M5">
-        <v>0.7341897290415034</v>
+        <v>0.2252746394452636</v>
       </c>
       <c r="N5">
-        <v>0.156068832352517</v>
+        <v>0.04581233012775776</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7607814186520443</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1784688854136718</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7888816367531319</v>
+        <v>0.7726087097579182</v>
       </c>
       <c r="C6">
-        <v>0.07376439834106918</v>
+        <v>0.07940001330202051</v>
       </c>
       <c r="D6">
-        <v>0.03282891502155394</v>
+        <v>0.03932852940570086</v>
       </c>
       <c r="E6">
-        <v>0.03241263878487821</v>
+        <v>0.03248883815201609</v>
       </c>
       <c r="F6">
-        <v>1.242827246686744</v>
+        <v>1.088379113732884</v>
       </c>
       <c r="G6">
-        <v>1.004738337657344</v>
+        <v>0.8589886649291145</v>
       </c>
       <c r="H6">
-        <v>0.03019785707338918</v>
+        <v>0.02336328014777733</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.7366059529552729</v>
+        <v>0.63453888468797</v>
       </c>
       <c r="K6">
-        <v>0.794065263248612</v>
+        <v>0.6589204947988243</v>
       </c>
       <c r="L6">
-        <v>0.05035410396093809</v>
+        <v>0.2732658857042907</v>
       </c>
       <c r="M6">
-        <v>0.7289411396147045</v>
+        <v>0.2252439725052611</v>
       </c>
       <c r="N6">
-        <v>0.1550908750192619</v>
+        <v>0.04569251870619517</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.755288042816403</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1773859471642893</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8273697734228165</v>
+        <v>0.8106034259694468</v>
       </c>
       <c r="C7">
-        <v>0.07684530864536043</v>
+        <v>0.08339713981452235</v>
       </c>
       <c r="D7">
-        <v>0.03437192428091151</v>
+        <v>0.04141994893639378</v>
       </c>
       <c r="E7">
-        <v>0.03342374877847654</v>
+        <v>0.03345334600536454</v>
       </c>
       <c r="F7">
-        <v>1.255401994058118</v>
+        <v>1.094442992819971</v>
       </c>
       <c r="G7">
-        <v>1.014410805196022</v>
+        <v>0.8657058691720465</v>
       </c>
       <c r="H7">
-        <v>0.0284622300320736</v>
+        <v>0.02200597656569592</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.7393669746237208</v>
+        <v>0.6310466394935759</v>
       </c>
       <c r="K7">
-        <v>0.7971328771058523</v>
+        <v>0.6580481400079883</v>
       </c>
       <c r="L7">
-        <v>0.05144095264333615</v>
+        <v>0.2718122670054868</v>
       </c>
       <c r="M7">
-        <v>0.7653823250238929</v>
+        <v>0.2251414128375373</v>
       </c>
       <c r="N7">
-        <v>0.1618792009460535</v>
+        <v>0.04648979763674355</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7930953037895847</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1848880974092282</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9976060615195763</v>
+        <v>0.9777012814903401</v>
       </c>
       <c r="C8">
-        <v>0.09044516546074988</v>
+        <v>0.1017438963076103</v>
       </c>
       <c r="D8">
-        <v>0.04118644643164515</v>
+        <v>0.05026536267737924</v>
       </c>
       <c r="E8">
-        <v>0.03788118777471716</v>
+        <v>0.03762292298707948</v>
       </c>
       <c r="F8">
-        <v>1.313482172169728</v>
+        <v>1.127737216103036</v>
       </c>
       <c r="G8">
-        <v>1.059557182566778</v>
+        <v>0.8922271398593864</v>
       </c>
       <c r="H8">
-        <v>0.02164266604765264</v>
+        <v>0.01665356541201751</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.7530071783174606</v>
+        <v>0.6296355678949936</v>
       </c>
       <c r="K8">
-        <v>0.8122945955001626</v>
+        <v>0.6580299455334</v>
       </c>
       <c r="L8">
-        <v>0.05619832601198027</v>
+        <v>0.266810677097979</v>
       </c>
       <c r="M8">
-        <v>0.9265173155959587</v>
+        <v>0.2273228613065363</v>
       </c>
       <c r="N8">
-        <v>0.1918546735467288</v>
+        <v>0.0500249989340098</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9608185815541788</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2181132015749796</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.333633087740225</v>
+        <v>1.304874215357643</v>
       </c>
       <c r="C9">
-        <v>0.117238240734423</v>
+        <v>0.1394158335349402</v>
       </c>
       <c r="D9">
-        <v>0.05460107383278512</v>
+        <v>0.06701616015779877</v>
       </c>
       <c r="E9">
-        <v>0.046644357997355</v>
+        <v>0.04565193107445076</v>
       </c>
       <c r="F9">
-        <v>1.43764552462531</v>
+        <v>1.208443454413995</v>
       </c>
       <c r="G9">
-        <v>1.157903150517811</v>
+        <v>0.9436363733959041</v>
       </c>
       <c r="H9">
-        <v>0.01154045504980085</v>
+        <v>0.00873879724261889</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7854194782169515</v>
+        <v>0.6513085650227737</v>
       </c>
       <c r="K9">
-        <v>0.8483787293206788</v>
+        <v>0.6668852488763832</v>
       </c>
       <c r="L9">
-        <v>0.06543866836499035</v>
+        <v>0.2594280551155919</v>
       </c>
       <c r="M9">
-        <v>1.244465600278176</v>
+        <v>0.2401053993191162</v>
       </c>
       <c r="N9">
-        <v>0.2508573580104638</v>
+        <v>0.05692037536004335</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.292340254691595</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2837624873364604</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.581026679759077</v>
+        <v>1.546497575079911</v>
       </c>
       <c r="C10">
-        <v>0.1382524548818935</v>
+        <v>0.1667750238807315</v>
       </c>
       <c r="D10">
-        <v>0.06385077838980635</v>
+        <v>0.07980395041630572</v>
       </c>
       <c r="E10">
-        <v>0.05124914067116215</v>
+        <v>0.04998153478346268</v>
       </c>
       <c r="F10">
-        <v>1.512600742768797</v>
+        <v>1.242454995550915</v>
       </c>
       <c r="G10">
-        <v>1.216307131898077</v>
+        <v>0.9876416144632572</v>
       </c>
       <c r="H10">
-        <v>0.006756977203231873</v>
+        <v>0.005112186358214199</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.802629599055507</v>
+        <v>0.6273233506482256</v>
       </c>
       <c r="K10">
-        <v>0.8653861252011836</v>
+        <v>0.659763280944702</v>
       </c>
       <c r="L10">
-        <v>0.06956319995316207</v>
+        <v>0.2483701945976051</v>
       </c>
       <c r="M10">
-        <v>1.481371570855259</v>
+        <v>0.2475441961597049</v>
       </c>
       <c r="N10">
-        <v>0.2857524319889251</v>
+        <v>0.05965154806759543</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.536043173688938</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3226446887143624</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.679676918844649</v>
+        <v>1.650228099941074</v>
       </c>
       <c r="C11">
-        <v>0.158399345217191</v>
+        <v>0.1834839499344127</v>
       </c>
       <c r="D11">
-        <v>0.06226170435826361</v>
+        <v>0.07978967922139191</v>
       </c>
       <c r="E11">
-        <v>0.03889697728956598</v>
+        <v>0.03833055627998405</v>
       </c>
       <c r="F11">
-        <v>1.350760895222507</v>
+        <v>1.087879257333057</v>
       </c>
       <c r="G11">
-        <v>1.070278644918787</v>
+        <v>0.9022749083740109</v>
       </c>
       <c r="H11">
-        <v>0.02494256150944452</v>
+        <v>0.02349130842799596</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7233311183641149</v>
+        <v>0.5089933903112751</v>
       </c>
       <c r="K11">
-        <v>0.7589335919924025</v>
+        <v>0.5677783754953651</v>
       </c>
       <c r="L11">
-        <v>0.05384546461752215</v>
+        <v>0.2126536273216146</v>
       </c>
       <c r="M11">
-        <v>1.601337501490207</v>
+        <v>0.2155798630705519</v>
       </c>
       <c r="N11">
-        <v>0.2300614652554316</v>
+        <v>0.04764722908032848</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.64969416869863</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2611000174760392</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.710085805698583</v>
+        <v>1.685572564691455</v>
       </c>
       <c r="C12">
-        <v>0.1717683986943968</v>
+        <v>0.1931005220582591</v>
       </c>
       <c r="D12">
-        <v>0.05896221747661201</v>
+        <v>0.07621405317245689</v>
       </c>
       <c r="E12">
-        <v>0.03007609817221812</v>
+        <v>0.02986192388350517</v>
       </c>
       <c r="F12">
-        <v>1.205631148570987</v>
+        <v>0.9652303614908107</v>
       </c>
       <c r="G12">
-        <v>0.9420391891068505</v>
+        <v>0.8140627835917655</v>
       </c>
       <c r="H12">
-        <v>0.06382607657661765</v>
+        <v>0.06236818414184597</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6561419178488705</v>
+        <v>0.444022546874109</v>
       </c>
       <c r="K12">
-        <v>0.6718870886679156</v>
+        <v>0.5018973278259189</v>
       </c>
       <c r="L12">
-        <v>0.04716832261739123</v>
+        <v>0.1891602285833685</v>
       </c>
       <c r="M12">
-        <v>1.652968388415559</v>
+        <v>0.1902169182600062</v>
       </c>
       <c r="N12">
-        <v>0.1814280867860489</v>
+        <v>0.04412595960189636</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.695578316824481</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2072023917963861</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.689404929066853</v>
+        <v>1.669265723603218</v>
       </c>
       <c r="C13">
-        <v>0.180524655002344</v>
+        <v>0.1985906952277787</v>
       </c>
       <c r="D13">
-        <v>0.05417864124206773</v>
+        <v>0.06926387695773428</v>
       </c>
       <c r="E13">
-        <v>0.02348118466613869</v>
+        <v>0.0234242392011641</v>
       </c>
       <c r="F13">
-        <v>1.064817548443614</v>
+        <v>0.86165661897099</v>
       </c>
       <c r="G13">
-        <v>0.8197901875716553</v>
+        <v>0.7141046953638011</v>
       </c>
       <c r="H13">
-        <v>0.1203077799619194</v>
+        <v>0.1186714712201962</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5941504679873475</v>
+        <v>0.4147847161674179</v>
       </c>
       <c r="K13">
-        <v>0.5944281606999766</v>
+        <v>0.4522524462440884</v>
       </c>
       <c r="L13">
-        <v>0.0469475144159972</v>
+        <v>0.1727112638581332</v>
       </c>
       <c r="M13">
-        <v>1.654431021794124</v>
+        <v>0.1692906590312013</v>
       </c>
       <c r="N13">
-        <v>0.1357477896342019</v>
+        <v>0.0466240926630288</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.692465632341197</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1564883303149003</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.651881221375248</v>
+        <v>1.634525724998412</v>
       </c>
       <c r="C14">
-        <v>0.1845857704195168</v>
+        <v>0.2005825345556929</v>
       </c>
       <c r="D14">
-        <v>0.05019513139547627</v>
+        <v>0.06303690292794784</v>
       </c>
       <c r="E14">
-        <v>0.02024935570076458</v>
+        <v>0.02027279781317315</v>
       </c>
       <c r="F14">
-        <v>0.9699526509482297</v>
+        <v>0.7974151444602455</v>
       </c>
       <c r="G14">
-        <v>0.7385424213113794</v>
+        <v>0.6419449748438524</v>
       </c>
       <c r="H14">
-        <v>0.1704115667775739</v>
+        <v>0.1685652588329134</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5538466026917916</v>
+        <v>0.4065804813964675</v>
       </c>
       <c r="K14">
-        <v>0.5457185100955257</v>
+        <v>0.4244686933874426</v>
       </c>
       <c r="L14">
-        <v>0.05064480719824616</v>
+        <v>0.1639353277117745</v>
       </c>
       <c r="M14">
-        <v>1.632763139520108</v>
+        <v>0.156830932197245</v>
       </c>
       <c r="N14">
-        <v>0.1062125138322543</v>
+        <v>0.05184886340235551</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.668076987657173</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1236358757723082</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.631945570981372</v>
+        <v>1.615151489057411</v>
       </c>
       <c r="C15">
-        <v>0.1844594421863519</v>
+        <v>0.2000849907426954</v>
       </c>
       <c r="D15">
-        <v>0.04891929610958812</v>
+        <v>0.06090067488809581</v>
       </c>
       <c r="E15">
-        <v>0.01960786780551249</v>
+        <v>0.01965554508215606</v>
       </c>
       <c r="F15">
-        <v>0.9469575158179282</v>
+        <v>0.7841543072551147</v>
       </c>
       <c r="G15">
-        <v>0.7191799074273177</v>
+        <v>0.6226742586467111</v>
       </c>
       <c r="H15">
-        <v>0.1832851461355176</v>
+        <v>0.1813376203675858</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5447401828889298</v>
+        <v>0.4093664371359935</v>
       </c>
       <c r="K15">
-        <v>0.5351090748535121</v>
+        <v>0.4198888005717158</v>
       </c>
       <c r="L15">
-        <v>0.05192530446023724</v>
+        <v>0.1626607094811519</v>
       </c>
       <c r="M15">
-        <v>1.616698800744473</v>
+        <v>0.1544401769067747</v>
       </c>
       <c r="N15">
-        <v>0.09898643259576545</v>
+        <v>0.05342281723959985</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.651563274010925</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1156003770183531</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.529549076367914</v>
+        <v>1.511962334642959</v>
       </c>
       <c r="C16">
-        <v>0.1731938006278142</v>
+        <v>0.1897575308345836</v>
       </c>
       <c r="D16">
-        <v>0.04604350640497756</v>
+        <v>0.05532974768188836</v>
       </c>
       <c r="E16">
-        <v>0.01916845045142468</v>
+        <v>0.01925507021617734</v>
       </c>
       <c r="F16">
-        <v>0.9443675443237325</v>
+        <v>0.8030079037678206</v>
       </c>
       <c r="G16">
-        <v>0.7194345820847161</v>
+        <v>0.6066197056604352</v>
       </c>
       <c r="H16">
-        <v>0.1725239141063497</v>
+        <v>0.1700567637316936</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5499094720968856</v>
+        <v>0.4536479925320478</v>
       </c>
       <c r="K16">
-        <v>0.543524785066996</v>
+        <v>0.4380338749419366</v>
       </c>
       <c r="L16">
-        <v>0.05014090140552341</v>
+        <v>0.1702335630364864</v>
       </c>
       <c r="M16">
-        <v>1.513521128751336</v>
+        <v>0.1593099544180099</v>
       </c>
       <c r="N16">
-        <v>0.09478801165559503</v>
+        <v>0.05133766757673897</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.549914303400129</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1110611944410778</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.47114824270227</v>
+        <v>1.451892319121811</v>
       </c>
       <c r="C17">
-        <v>0.162429552206504</v>
+        <v>0.1802453587569062</v>
       </c>
       <c r="D17">
-        <v>0.04593055183283212</v>
+        <v>0.05456031856582655</v>
       </c>
       <c r="E17">
-        <v>0.02028359774163313</v>
+        <v>0.02030283450170778</v>
       </c>
       <c r="F17">
-        <v>0.9920694818564613</v>
+        <v>0.8503404379198969</v>
       </c>
       <c r="G17">
-        <v>0.7621740152973757</v>
+        <v>0.6338495940032942</v>
       </c>
       <c r="H17">
-        <v>0.135901724484853</v>
+        <v>0.1331443801382193</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5750670005019316</v>
+        <v>0.491386396427643</v>
       </c>
       <c r="K17">
-        <v>0.5753970560991242</v>
+        <v>0.4664818479034487</v>
       </c>
       <c r="L17">
-        <v>0.04617597740558033</v>
+        <v>0.1811592853668564</v>
       </c>
       <c r="M17">
-        <v>1.446171835268274</v>
+        <v>0.1691367043631971</v>
       </c>
       <c r="N17">
-        <v>0.106454031865745</v>
+        <v>0.04650762235343819</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.4845466017089</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1241302317579667</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.443485568980748</v>
+        <v>1.421166882363678</v>
       </c>
       <c r="C18">
-        <v>0.1511726934994897</v>
+        <v>0.1711920771563626</v>
       </c>
       <c r="D18">
-        <v>0.04819784930140258</v>
+        <v>0.05738356939400546</v>
       </c>
       <c r="E18">
-        <v>0.02414488059451969</v>
+        <v>0.02393793726325555</v>
       </c>
       <c r="F18">
-        <v>1.092574137302357</v>
+        <v>0.9343923798536125</v>
       </c>
       <c r="G18">
-        <v>0.8503483544099026</v>
+        <v>0.6989659204158727</v>
       </c>
       <c r="H18">
-        <v>0.0833505223943547</v>
+        <v>0.08052706246090935</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6221556222961482</v>
+        <v>0.5359803343900893</v>
       </c>
       <c r="K18">
-        <v>0.6344758810235902</v>
+        <v>0.5113204756688994</v>
       </c>
       <c r="L18">
-        <v>0.04348286388442579</v>
+        <v>0.1979332458765732</v>
       </c>
       <c r="M18">
-        <v>1.401871759684923</v>
+        <v>0.1856903118062974</v>
       </c>
       <c r="N18">
-        <v>0.1361294674065405</v>
+        <v>0.04213335031006959</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.443654288034907</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1571341709084564</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.442312312470534</v>
+        <v>1.415862874190935</v>
       </c>
       <c r="C19">
-        <v>0.140754561336891</v>
+        <v>0.1636406149796272</v>
       </c>
       <c r="D19">
-        <v>0.05228102380694821</v>
+        <v>0.06283503087045261</v>
       </c>
       <c r="E19">
-        <v>0.03188109699934039</v>
+        <v>0.03128869995735073</v>
       </c>
       <c r="F19">
-        <v>1.235367234166063</v>
+        <v>1.048388121636471</v>
       </c>
       <c r="G19">
-        <v>0.9755414300712886</v>
+        <v>0.7929563272243172</v>
       </c>
       <c r="H19">
-        <v>0.03733144570911406</v>
+        <v>0.0346740801887222</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.686672370794227</v>
+        <v>0.5880577311794752</v>
       </c>
       <c r="K19">
-        <v>0.7166821634417104</v>
+        <v>0.5704803968586631</v>
       </c>
       <c r="L19">
-        <v>0.047338448181522</v>
+        <v>0.219765437493141</v>
       </c>
       <c r="M19">
-        <v>1.379459885735457</v>
+        <v>0.2081172411189272</v>
       </c>
       <c r="N19">
-        <v>0.182956452347014</v>
+        <v>0.04335596347070902</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.425795362089474</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2090209428490226</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.515833234007602</v>
+        <v>1.482054221871806</v>
       </c>
       <c r="C20">
-        <v>0.1327607553859167</v>
+        <v>0.1606192211067849</v>
       </c>
       <c r="D20">
-        <v>0.06138968585533178</v>
+        <v>0.07561624398898203</v>
       </c>
       <c r="E20">
-        <v>0.04995643730191013</v>
+        <v>0.04863096007638035</v>
       </c>
       <c r="F20">
-        <v>1.491408842103837</v>
+        <v>1.239908962491938</v>
       </c>
       <c r="G20">
-        <v>1.199586408788662</v>
+        <v>0.9653897042708337</v>
       </c>
       <c r="H20">
-        <v>0.007853433249215946</v>
+        <v>0.005914100347156559</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7973844356789215</v>
+        <v>0.6537630213641847</v>
       </c>
       <c r="K20">
-        <v>0.8600106756626502</v>
+        <v>0.6652179275274079</v>
       </c>
       <c r="L20">
-        <v>0.06836213980171735</v>
+        <v>0.2525526718571243</v>
       </c>
       <c r="M20">
-        <v>1.419052624337866</v>
+        <v>0.246821306266316</v>
       </c>
       <c r="N20">
-        <v>0.2762113891483438</v>
+        <v>0.05894163514246742</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.473226308108366</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3120799670211198</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.709090123298353</v>
+        <v>1.674172214041675</v>
       </c>
       <c r="C21">
-        <v>0.1472167768396133</v>
+        <v>0.1751139325795918</v>
       </c>
       <c r="D21">
-        <v>0.06955365349595866</v>
+        <v>0.09118944452064426</v>
       </c>
       <c r="E21">
-        <v>0.05643383594834717</v>
+        <v>0.05553072775763113</v>
       </c>
       <c r="F21">
-        <v>1.587842515682993</v>
+        <v>1.255995588711201</v>
       </c>
       <c r="G21">
-        <v>1.279073608950966</v>
+        <v>1.078531978613896</v>
       </c>
       <c r="H21">
-        <v>0.004377885791201019</v>
+        <v>0.003305242802230546</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8281827106783766</v>
+        <v>0.5468470008944877</v>
       </c>
       <c r="K21">
-        <v>0.8961009913993365</v>
+        <v>0.6534097002041932</v>
       </c>
       <c r="L21">
-        <v>0.07566050201043595</v>
+        <v>0.2419180921504775</v>
       </c>
       <c r="M21">
-        <v>1.599718217980268</v>
+        <v>0.2507725548338939</v>
       </c>
       <c r="N21">
-        <v>0.3166317263185334</v>
+        <v>0.06374697068194024</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.653083952689144</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3566397374756605</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.835235696256291</v>
+        <v>1.800052938500244</v>
       </c>
       <c r="C22">
-        <v>0.1573160258188722</v>
+        <v>0.1846332281479874</v>
       </c>
       <c r="D22">
-        <v>0.07457196335742822</v>
+        <v>0.1014935799629484</v>
       </c>
       <c r="E22">
-        <v>0.05972965512117057</v>
+        <v>0.05923201347632556</v>
       </c>
       <c r="F22">
-        <v>1.640542701797727</v>
+        <v>1.255220326068638</v>
       </c>
       <c r="G22">
-        <v>1.322016913624765</v>
+        <v>1.153268380544588</v>
       </c>
       <c r="H22">
-        <v>0.00279065913575649</v>
+        <v>0.002128319010707314</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8438180738465348</v>
+        <v>0.477575161097775</v>
       </c>
       <c r="K22">
-        <v>0.9135782301818693</v>
+        <v>0.6398683210895015</v>
       </c>
       <c r="L22">
-        <v>0.07908833102521129</v>
+        <v>0.2331258783354144</v>
       </c>
       <c r="M22">
-        <v>1.71909888397056</v>
+        <v>0.2513105248558176</v>
       </c>
       <c r="N22">
-        <v>0.3387085952494573</v>
+        <v>0.06577630049374505</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.770763085058803</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3809500922806706</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.767842986377332</v>
+        <v>1.73215184552862</v>
       </c>
       <c r="C23">
-        <v>0.1519184373835145</v>
+        <v>0.180304227251554</v>
       </c>
       <c r="D23">
-        <v>0.07189121680414701</v>
+        <v>0.0953521072117951</v>
       </c>
       <c r="E23">
-        <v>0.05796828901906181</v>
+        <v>0.05714178315736973</v>
       </c>
       <c r="F23">
-        <v>1.612258861819555</v>
+        <v>1.261079772721786</v>
       </c>
       <c r="G23">
-        <v>1.298945034679306</v>
+        <v>1.105223816189252</v>
       </c>
       <c r="H23">
-        <v>0.003590990724831822</v>
+        <v>0.002713744307757282</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.835392102578993</v>
+        <v>0.5255928168313346</v>
       </c>
       <c r="K23">
-        <v>0.9041578803150188</v>
+        <v>0.6500932959819821</v>
       </c>
       <c r="L23">
-        <v>0.07725702876428997</v>
+        <v>0.2388095683577944</v>
       </c>
       <c r="M23">
-        <v>1.655318256562481</v>
+        <v>0.2522353640106232</v>
       </c>
       <c r="N23">
-        <v>0.3269151904721923</v>
+        <v>0.06476706612737715</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.708869712043594</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3680103118550733</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.513963111843537</v>
+        <v>1.479766845855266</v>
       </c>
       <c r="C24">
-        <v>0.1316246593157899</v>
+        <v>0.1597016645209379</v>
       </c>
       <c r="D24">
-        <v>0.06178629035027683</v>
+        <v>0.07613086999568708</v>
       </c>
       <c r="E24">
-        <v>0.05134363427475641</v>
+        <v>0.04996003639629265</v>
       </c>
       <c r="F24">
-        <v>1.508460497977012</v>
+        <v>1.253751234285389</v>
       </c>
       <c r="G24">
-        <v>1.214785821837438</v>
+        <v>0.9764561385956654</v>
       </c>
       <c r="H24">
-        <v>0.00761841127687346</v>
+        <v>0.005698089284481567</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8052062991225597</v>
+        <v>0.6607827104183457</v>
       </c>
       <c r="K24">
-        <v>0.8704450433922233</v>
+        <v>0.672908503869138</v>
       </c>
       <c r="L24">
-        <v>0.07035471921665248</v>
+        <v>0.2554491801152032</v>
       </c>
       <c r="M24">
-        <v>1.415082707438671</v>
+        <v>0.2496673515868011</v>
       </c>
       <c r="N24">
-        <v>0.2824628892708034</v>
+        <v>0.06053819825720907</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.469696998407727</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3189733426731181</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.242413470630026</v>
+        <v>1.215913150170337</v>
       </c>
       <c r="C25">
-        <v>0.1099656713310111</v>
+        <v>0.1295359645499019</v>
       </c>
       <c r="D25">
-        <v>0.05096325016649672</v>
+        <v>0.06216063203888922</v>
       </c>
       <c r="E25">
-        <v>0.04426746690341687</v>
+        <v>0.04342469733282428</v>
       </c>
       <c r="F25">
-        <v>1.402860046063779</v>
+        <v>1.188793672059489</v>
       </c>
       <c r="G25">
-        <v>1.13015071087662</v>
+        <v>0.9249379752616136</v>
       </c>
       <c r="H25">
-        <v>0.01389805101506936</v>
+        <v>0.01056548149903934</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7760014960493464</v>
+        <v>0.6537680721482957</v>
       </c>
       <c r="K25">
-        <v>0.8378855945724766</v>
+        <v>0.6657323016451713</v>
       </c>
       <c r="L25">
-        <v>0.06294339378322533</v>
+        <v>0.2620471335710448</v>
       </c>
       <c r="M25">
-        <v>1.158160173334039</v>
+        <v>0.2364949804530916</v>
       </c>
       <c r="N25">
-        <v>0.2348565329258889</v>
+        <v>0.05511110145281251</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.202925984170065</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2659679566010169</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
